--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C064083-9B22-4F2F-A990-5CE936EE7208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A813C-4A69-480B-8240-384ACCD84E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="669">
   <si>
     <t>targets</t>
   </si>
@@ -2018,6 +2018,36 @@
   </si>
   <si>
     <t>p_ref</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_offshore3mn</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_inland1mn</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_offshore3mn_chl2021.csv</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_inland1mn_chl2021.csv</t>
+  </si>
+  <si>
+    <t>value_1</t>
+  </si>
+  <si>
+    <t>value_3</t>
+  </si>
+  <si>
+    <t>proporción</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/lsp_prot_area_offshore3mn_chl2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/lsp_prot_area_inland1mn_chl2021.csv</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -2510,9 +2540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2679,9 +2709,6 @@
       <c r="F3" t="s">
         <v>657</v>
       </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
       <c r="I3" t="s">
         <v>655</v>
       </c>
@@ -2697,6 +2724,12 @@
       <c r="P3" t="s">
         <v>32</v>
       </c>
+      <c r="Q3">
+        <v>2017</v>
+      </c>
+      <c r="R3">
+        <v>2021</v>
+      </c>
       <c r="S3">
         <v>0</v>
       </c>
@@ -2710,7 +2743,106 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E4" t="s">
+        <v>665</v>
+      </c>
+      <c r="I4" t="s">
+        <v>666</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>664</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4">
+        <v>2017</v>
+      </c>
+      <c r="R4">
+        <v>2021</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <v>103</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E5" t="s">
+        <v>665</v>
+      </c>
+      <c r="I5" t="s">
+        <v>667</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>663</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5">
+        <v>2017</v>
+      </c>
+      <c r="R5">
+        <v>2021</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>97.2</v>
+      </c>
+      <c r="Y5">
+        <v>103</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>668</v>
+      </c>
+    </row>
     <row r="19" spans="19:20" x14ac:dyDescent="0.4">
       <c r="T19" s="1"/>
     </row>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A813C-4A69-480B-8240-384ACCD84E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F958C4A-1AEA-49A3-B9BB-F4A24FDA2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="681">
   <si>
     <t>targets</t>
   </si>
@@ -2048,6 +2048,42 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>ico_spp_trend_chl2021.csv</t>
+  </si>
+  <si>
+    <t>ico_spp_trend</t>
+  </si>
+  <si>
+    <t>ico_spp_status_chl2021.csv</t>
+  </si>
+  <si>
+    <t>ico_spp_status</t>
+  </si>
+  <si>
+    <t>tendencia</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>estatus</t>
+  </si>
+  <si>
+    <t>ico_spp_extinction_status</t>
+  </si>
+  <si>
+    <t>ico_spp_popn_trend</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/ico_spp_trend_chl2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/ico_spp_status_chl2021.csv</t>
+  </si>
+  <si>
+    <t>Specie</t>
   </si>
 </sst>
 </file>
@@ -2540,9 +2576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2840,6 +2876,88 @@
         <v>103</v>
       </c>
       <c r="Z5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H6" t="s">
+        <v>676</v>
+      </c>
+      <c r="I6" t="s">
+        <v>678</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>680</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6">
+        <v>103</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D7" t="s">
+        <v>674</v>
+      </c>
+      <c r="E7" t="s">
+        <v>673</v>
+      </c>
+      <c r="H7" t="s">
+        <v>677</v>
+      </c>
+      <c r="I7" t="s">
+        <v>679</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>680</v>
+      </c>
+      <c r="O7" t="s">
+        <v>674</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7">
+        <v>103</v>
+      </c>
+      <c r="Z7" t="s">
         <v>668</v>
       </c>
     </row>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F958C4A-1AEA-49A3-B9BB-F4A24FDA2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C070EFA-CBDD-4650-9F77-C5A4BAB46F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22305" yWindow="4935" windowWidth="21600" windowHeight="11100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="726">
   <si>
     <t>targets</t>
   </si>
@@ -1993,12 +1993,6 @@
     <t>~/github/ohi-global/eez/layers/sp_alien_species.csv</t>
   </si>
   <si>
-    <t>cs_habitat_extent_chl2021.csv</t>
-  </si>
-  <si>
-    <t>cs_habitat_pref_chl2021.csv</t>
-  </si>
-  <si>
     <t>cs_habitat_extent</t>
   </si>
   <si>
@@ -2026,12 +2020,6 @@
     <t>lsp_prot_area_inland1mn</t>
   </si>
   <si>
-    <t>lsp_prot_area_offshore3mn_chl2021.csv</t>
-  </si>
-  <si>
-    <t>lsp_prot_area_inland1mn_chl2021.csv</t>
-  </si>
-  <si>
     <t>value_1</t>
   </si>
   <si>
@@ -2050,15 +2038,9 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>ico_spp_trend_chl2021.csv</t>
-  </si>
-  <si>
     <t>ico_spp_trend</t>
   </si>
   <si>
-    <t>ico_spp_status_chl2021.csv</t>
-  </si>
-  <si>
     <t>ico_spp_status</t>
   </si>
   <si>
@@ -2084,19 +2066,179 @@
   </si>
   <si>
     <t>Specie</t>
+  </si>
+  <si>
+    <t>tr_factor</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/tr_factor_chl2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/tr_jobs_pct_tourism_chl2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/tr_sustainability_chl2021.csv</t>
+  </si>
+  <si>
+    <t>hab_extension</t>
+  </si>
+  <si>
+    <t>rgn_name</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/hab_extension_chl2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/regions_list.csv</t>
+  </si>
+  <si>
+    <t>regions_list.csv</t>
+  </si>
+  <si>
+    <t>rgn_area_inland1mn</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/rgn_area_inland1mn_ch2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/rgn_area_offshore_3mn_chl2021.csv</t>
+  </si>
+  <si>
+    <t>rgn_area_offshore3mn</t>
+  </si>
+  <si>
+    <t>cs_habitat_extent_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cs_habitat_pref_chl2023.csv</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_offshore3mn_chl2023.csv</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_inland1mn_chl2023.csv</t>
+  </si>
+  <si>
+    <t>ico_spp_trend_chl2023.csv</t>
+  </si>
+  <si>
+    <t>ico_spp_status_chl2023.csv</t>
+  </si>
+  <si>
+    <t>tr_factor_chl2023.csv</t>
+  </si>
+  <si>
+    <t>tr_jobs_pct_tourism_chl2023.csv</t>
+  </si>
+  <si>
+    <t>tr_sustainability_chl2023.csv</t>
+  </si>
+  <si>
+    <t>hab_extension_chl2023.csv</t>
+  </si>
+  <si>
+    <t>rgn_area_inland1mn_chl2023.csv</t>
+  </si>
+  <si>
+    <t>rgn_area_offshore3mn_chl2023.csv</t>
+  </si>
+  <si>
+    <t>mar_sustainability_scores_chl2023.csv</t>
+  </si>
+  <si>
+    <t>mar_sustainability_scores</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>toneladas</t>
+  </si>
+  <si>
+    <t>coeficiente</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/mar_sustainability_scores_chl2023.csv</t>
+  </si>
+  <si>
+    <t>mar_harvest_tonnes_chl2023.csv</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/mar_harvest_tonnes_chl2023.csv</t>
+  </si>
+  <si>
+    <t>species_code</t>
+  </si>
+  <si>
+    <t>b_bmsy</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/fis_b_bmsy_chl2023.csv</t>
+  </si>
+  <si>
+    <t>Spp</t>
+  </si>
+  <si>
+    <t>fis_meancatch_chl2023.csv</t>
+  </si>
+  <si>
+    <t>fis_b_bmsy_chl2023.csv</t>
+  </si>
+  <si>
+    <t>~/github/chl/comunas/layers/fis_meancatch_chl2023.csv</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP </t>
+  </si>
+  <si>
+    <t>np_harvest_tonnes_chl2023.csv</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>np_harvest_tonnes_weigth</t>
+  </si>
+  <si>
+    <t>np_fofm_scores</t>
+  </si>
+  <si>
+    <t>p_harvest_tonnes_weigth_chl2023.csv</t>
+  </si>
+  <si>
+    <t>np_fofm_scores_chl2023.csv</t>
+  </si>
+  <si>
+    <t>np_seaweed_sust_chl2023.cs</t>
+  </si>
+  <si>
+    <t>np_seaweed_sust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2150,13 +2292,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2566,7 +2709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2576,9 +2719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2675,10 +2818,10 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="D2" t="s">
         <v>204</v>
@@ -2687,10 +2830,10 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -2731,22 +2874,22 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C3" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="D3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -2755,7 +2898,7 @@
         <v>208</v>
       </c>
       <c r="N3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="P3" t="s">
         <v>32</v>
@@ -2784,19 +2927,19 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C4" t="s">
+        <v>691</v>
+      </c>
+      <c r="D4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E4" t="s">
         <v>661</v>
       </c>
-      <c r="D4" t="s">
-        <v>664</v>
-      </c>
-      <c r="E4" t="s">
-        <v>665</v>
-      </c>
       <c r="I4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -2805,7 +2948,7 @@
         <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="P4" t="s">
         <v>32</v>
@@ -2826,7 +2969,7 @@
         <v>103</v>
       </c>
       <c r="Z4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
@@ -2834,19 +2977,19 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="D5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E5" t="s">
+        <v>661</v>
+      </c>
+      <c r="I5" t="s">
         <v>663</v>
-      </c>
-      <c r="E5" t="s">
-        <v>665</v>
-      </c>
-      <c r="I5" t="s">
-        <v>667</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -2855,7 +2998,7 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="P5" t="s">
         <v>32</v>
@@ -2876,7 +3019,7 @@
         <v>103</v>
       </c>
       <c r="Z5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
@@ -2884,28 +3027,28 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="H6" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I6" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="O6" t="s">
         <v>74</v>
@@ -2917,7 +3060,7 @@
         <v>103</v>
       </c>
       <c r="Z6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
@@ -2925,31 +3068,31 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C7" t="s">
+        <v>694</v>
+      </c>
+      <c r="D7" t="s">
+        <v>668</v>
+      </c>
+      <c r="E7" t="s">
+        <v>667</v>
+      </c>
+      <c r="H7" t="s">
         <v>671</v>
       </c>
-      <c r="D7" t="s">
-        <v>674</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>673</v>
-      </c>
-      <c r="H7" t="s">
-        <v>677</v>
-      </c>
-      <c r="I7" t="s">
-        <v>679</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="O7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
@@ -2958,16 +3101,733 @@
         <v>103</v>
       </c>
       <c r="Z7" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="19" spans="19:20" x14ac:dyDescent="0.4">
-      <c r="T19" s="1"/>
-    </row>
-    <row r="22" spans="19:20" x14ac:dyDescent="0.4">
-      <c r="S22" s="1"/>
-    </row>
-    <row r="24" spans="19:20" x14ac:dyDescent="0.4">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C8" t="s">
+        <v>695</v>
+      </c>
+      <c r="D8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E8" t="s">
+        <v>676</v>
+      </c>
+      <c r="I8" t="s">
+        <v>677</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>676</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8">
+        <v>2017</v>
+      </c>
+      <c r="R8">
+        <v>2021</v>
+      </c>
+      <c r="S8">
+        <v>0.1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>103</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>696</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>661</v>
+      </c>
+      <c r="I9" t="s">
+        <v>678</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9">
+        <v>2017</v>
+      </c>
+      <c r="R9">
+        <v>2021</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="Y9">
+        <v>103</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>697</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>676</v>
+      </c>
+      <c r="I10" t="s">
+        <v>679</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>2017</v>
+      </c>
+      <c r="R10">
+        <v>2021</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1.1176470000000001</v>
+      </c>
+      <c r="Y10">
+        <v>103</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" t="s">
+        <v>682</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11">
+        <v>2017</v>
+      </c>
+      <c r="R11">
+        <v>2021</v>
+      </c>
+      <c r="S11">
+        <v>3.0673250000000001E-3</v>
+      </c>
+      <c r="T11">
+        <v>14287.677</v>
+      </c>
+      <c r="Y11">
+        <v>103</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>684</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" t="s">
+        <v>683</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>681</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="6">
+        <v>8.370215</v>
+      </c>
+      <c r="T12">
+        <v>32015.422158000001</v>
+      </c>
+      <c r="Y12">
+        <v>103</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>685</v>
+      </c>
+      <c r="C13" t="s">
+        <v>699</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" t="s">
+        <v>686</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13">
+        <v>27</v>
+      </c>
+      <c r="T13">
+        <v>454769</v>
+      </c>
+      <c r="Y13">
+        <v>103</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C14" t="s">
+        <v>700</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" t="s">
+        <v>687</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14">
+        <v>84</v>
+      </c>
+      <c r="T14">
+        <v>209464</v>
+      </c>
+      <c r="Y14">
+        <v>103</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>707</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>704</v>
+      </c>
+      <c r="I15" t="s">
+        <v>708</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>709</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15">
+        <v>2017</v>
+      </c>
+      <c r="R15">
+        <v>2022</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>218157087</v>
+      </c>
+      <c r="Y15">
+        <v>52</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>702</v>
+      </c>
+      <c r="C16" t="s">
+        <v>701</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>705</v>
+      </c>
+      <c r="I16" t="s">
+        <v>706</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>703</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16">
+        <v>3.85</v>
+      </c>
+      <c r="T16">
+        <v>6.95</v>
+      </c>
+      <c r="Y16">
+        <v>52</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D17" t="s">
+        <v>710</v>
+      </c>
+      <c r="E17" t="s">
+        <v>705</v>
+      </c>
+      <c r="I17" t="s">
+        <v>711</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>712</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>710</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17">
+        <v>2012</v>
+      </c>
+      <c r="R17">
+        <v>2021</v>
+      </c>
+      <c r="S17">
+        <v>0.20468149999999999</v>
+      </c>
+      <c r="T17">
+        <v>1.9092450000000001</v>
+      </c>
+      <c r="Y17">
+        <v>93</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" t="s">
+        <v>713</v>
+      </c>
+      <c r="D18" t="s">
+        <v>716</v>
+      </c>
+      <c r="E18" t="s">
+        <v>704</v>
+      </c>
+      <c r="I18" t="s">
+        <v>715</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>712</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
+        <v>716</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18">
+        <v>2012</v>
+      </c>
+      <c r="R18">
+        <v>2021</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>263091</v>
+      </c>
+      <c r="Y18">
+        <v>92</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>718</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>704</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>719</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19">
+        <v>2017</v>
+      </c>
+      <c r="R19">
+        <v>2021</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>125722</v>
+      </c>
+      <c r="Y19">
+        <v>76</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>720</v>
+      </c>
+      <c r="C20" t="s">
+        <v>722</v>
+      </c>
+      <c r="D20" t="s">
+        <v>388</v>
+      </c>
+      <c r="E20" t="s">
+        <v>661</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>719</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>388</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20">
+        <v>2017</v>
+      </c>
+      <c r="R20">
+        <v>2021</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>717</v>
+      </c>
+      <c r="B21" t="s">
+        <v>721</v>
+      </c>
+      <c r="C21" t="s">
+        <v>723</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>719</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21">
+        <v>2018</v>
+      </c>
+      <c r="R21">
+        <v>2021</v>
+      </c>
+      <c r="S21">
+        <v>0.31802249999999999</v>
+      </c>
+      <c r="T21">
+        <v>0.99000500000000002</v>
+      </c>
+      <c r="Y21">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>717</v>
+      </c>
+      <c r="B22" t="s">
+        <v>725</v>
+      </c>
+      <c r="C22" t="s">
+        <v>724</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>669</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>719</v>
+      </c>
+      <c r="N22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.21111099999999999</v>
+      </c>
+      <c r="T22">
+        <v>0.68888890000000003</v>
+      </c>
+      <c r="Y22">
+        <v>76</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
@@ -2983,7 +3843,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C070EFA-CBDD-4650-9F77-C5A4BAB46F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBDF14F-B02E-4575-9645-314B26FBD7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22305" yWindow="4935" windowWidth="21600" windowHeight="11100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
     <sheet name="all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$73</definedName>
     <definedName name="DatosExternos_1" localSheetId="1">all!$A$1:$Z$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="728">
   <si>
     <t>targets</t>
   </si>
@@ -2209,23 +2209,29 @@
     <t>np_fofm_scores</t>
   </si>
   <si>
-    <t>p_harvest_tonnes_weigth_chl2023.csv</t>
-  </si>
-  <si>
     <t>np_fofm_scores_chl2023.csv</t>
   </si>
   <si>
-    <t>np_seaweed_sust_chl2023.cs</t>
-  </si>
-  <si>
     <t>np_seaweed_sust</t>
+  </si>
+  <si>
+    <t>fp_wildcaught_weight_chl2023.csv</t>
+  </si>
+  <si>
+    <t>np_harvest_tonnes_weigth_chl2023.csv</t>
+  </si>
+  <si>
+    <t>np_seaweed_sust_chl2023.csv</t>
+  </si>
+  <si>
+    <t>np_harvest_tonnes_relative_chl2023.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2252,6 +2258,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FFEAEAEA"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2292,7 +2304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2300,6 +2312,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2717,11 +2730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3638,31 +3651,28 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>704</v>
+        <v>661</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
-      </c>
-      <c r="L19" t="s">
-        <v>719</v>
       </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="P19" t="s">
         <v>32</v>
@@ -3674,13 +3684,10 @@
         <v>2021</v>
       </c>
       <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>125722</v>
-      </c>
-      <c r="Y19">
-        <v>76</v>
+        <v>1.702168E-4</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
       </c>
       <c r="Z19" t="s">
         <v>664</v>
@@ -3691,16 +3698,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>720</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D20" t="s">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="J20" t="s">
         <v>30</v>
@@ -3712,7 +3719,7 @@
         <v>39</v>
       </c>
       <c r="N20" t="s">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="P20" t="s">
         <v>32</v>
@@ -3726,8 +3733,8 @@
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>1</v>
+      <c r="T20" s="1">
+        <v>125722</v>
       </c>
       <c r="Y20">
         <v>76</v>
@@ -3738,19 +3745,19 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>717</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C21" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="E21" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J21" t="s">
         <v>30</v>
@@ -3762,25 +3769,25 @@
         <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="P21" t="s">
         <v>32</v>
       </c>
       <c r="Q21">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R21">
         <v>2021</v>
       </c>
       <c r="S21">
-        <v>0.31802249999999999</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.99000500000000002</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s">
         <v>664</v>
@@ -3791,10 +3798,10 @@
         <v>717</v>
       </c>
       <c r="B22" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
@@ -3808,41 +3815,150 @@
       <c r="L22" t="s">
         <v>719</v>
       </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
       <c r="N22" t="s">
         <v>50</v>
       </c>
       <c r="P22" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="1">
-        <v>0.21111099999999999</v>
+      <c r="Q22">
+        <v>2018</v>
+      </c>
+      <c r="R22">
+        <v>2021</v>
+      </c>
+      <c r="S22">
+        <v>0.31802249999999999</v>
       </c>
       <c r="T22">
-        <v>0.68888890000000003</v>
+        <v>0.99000500000000002</v>
       </c>
       <c r="Y22">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="s">
         <v>664</v>
       </c>
     </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>717</v>
+      </c>
+      <c r="B23" t="s">
+        <v>723</v>
+      </c>
+      <c r="C23" t="s">
+        <v>726</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>669</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>719</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23">
+        <v>2017</v>
+      </c>
+      <c r="R23">
+        <v>2021</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>76</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>664</v>
+      </c>
+    </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="37" spans="14:19" x14ac:dyDescent="0.4">
-      <c r="S37" s="1"/>
-    </row>
-    <row r="44" spans="14:19" x14ac:dyDescent="0.4">
-      <c r="N44" s="2"/>
-    </row>
-    <row r="66" spans="19:20" x14ac:dyDescent="0.4">
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="A24" t="s">
+        <v>717</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>727</v>
+      </c>
+      <c r="D24" t="s">
+        <v>567</v>
+      </c>
+      <c r="E24" t="s">
+        <v>661</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s">
+        <v>719</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>567</v>
+      </c>
+      <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24">
+        <v>2017</v>
+      </c>
+      <c r="R24">
+        <v>2021</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>76</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="38" spans="14:19" x14ac:dyDescent="0.4">
+      <c r="S38" s="1"/>
+    </row>
+    <row r="45" spans="14:19" x14ac:dyDescent="0.4">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="67" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBDF14F-B02E-4575-9645-314B26FBD7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FAAA34-A9AC-4754-B8BB-EA683A5B913E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$75</definedName>
     <definedName name="DatosExternos_1" localSheetId="1">all!$A$1:$Z$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="732">
   <si>
     <t>targets</t>
   </si>
@@ -2225,6 +2225,18 @@
   </si>
   <si>
     <t>np_harvest_tonnes_relative_chl2023.csv</t>
+  </si>
+  <si>
+    <t>spp_status_chl2023.csv</t>
+  </si>
+  <si>
+    <t>spp_trend_chl2023.csv</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>region_id</t>
   </si>
 </sst>
 </file>
@@ -2730,11 +2742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3269,52 +3281,37 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>595</v>
       </c>
       <c r="B11" t="s">
-        <v>680</v>
+        <v>596</v>
       </c>
       <c r="C11" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I11" t="s">
-        <v>682</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>731</v>
       </c>
       <c r="L11" t="s">
-        <v>208</v>
-      </c>
-      <c r="M11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" t="s">
-        <v>86</v>
+        <v>730</v>
       </c>
       <c r="P11" t="s">
         <v>32</v>
       </c>
-      <c r="Q11">
-        <v>2017</v>
-      </c>
-      <c r="R11">
-        <v>2021</v>
-      </c>
       <c r="S11">
-        <v>3.0673250000000001E-3</v>
+        <v>50.499250000000004</v>
       </c>
       <c r="T11">
-        <v>14287.677</v>
+        <v>90.476190000000003</v>
       </c>
       <c r="Y11">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Z11" t="s">
         <v>664</v>
@@ -3322,43 +3319,37 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>595</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>602</v>
       </c>
       <c r="C12" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I12" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>681</v>
-      </c>
-      <c r="N12" t="s">
-        <v>28</v>
+        <v>731</v>
+      </c>
+      <c r="L12" t="s">
+        <v>730</v>
       </c>
       <c r="P12" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="6">
-        <v>8.370215</v>
+      <c r="S12">
+        <v>-0.5</v>
       </c>
       <c r="T12">
-        <v>32015.422158000001</v>
+        <v>0.5</v>
       </c>
       <c r="Y12">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Z12" t="s">
         <v>664</v>
@@ -3366,37 +3357,49 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>204</v>
       </c>
       <c r="I13" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
+      <c r="L13" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
       </c>
+      <c r="Q13">
+        <v>2017</v>
+      </c>
+      <c r="R13">
+        <v>2021</v>
+      </c>
       <c r="S13">
-        <v>27</v>
+        <v>3.0673250000000001E-3</v>
       </c>
       <c r="T13">
-        <v>454769</v>
+        <v>14287.677</v>
       </c>
       <c r="Y13">
         <v>103</v>
@@ -3410,10 +3413,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>688</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -3422,22 +3425,25 @@
         <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
       </c>
+      <c r="K14" t="s">
+        <v>681</v>
+      </c>
       <c r="N14" t="s">
         <v>28</v>
       </c>
       <c r="P14" t="s">
         <v>32</v>
       </c>
-      <c r="S14">
-        <v>84</v>
+      <c r="S14" s="6">
+        <v>8.370215</v>
       </c>
       <c r="T14">
-        <v>209464</v>
+        <v>32015.422158000001</v>
       </c>
       <c r="Y14">
         <v>103</v>
@@ -3448,52 +3454,40 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>685</v>
       </c>
       <c r="C15" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>704</v>
+        <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="L15" t="s">
-        <v>709</v>
-      </c>
-      <c r="M15" t="s">
-        <v>39</v>
-      </c>
       <c r="N15" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
         <v>32</v>
       </c>
-      <c r="Q15">
-        <v>2017</v>
-      </c>
-      <c r="R15">
-        <v>2022</v>
-      </c>
       <c r="S15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T15">
-        <v>218157087</v>
+        <v>454769</v>
       </c>
       <c r="Y15">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="Z15" t="s">
         <v>664</v>
@@ -3501,43 +3495,40 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="C16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>705</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="L16" t="s">
-        <v>703</v>
-      </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="P16" t="s">
         <v>32</v>
       </c>
       <c r="S16">
-        <v>3.85</v>
+        <v>84</v>
       </c>
       <c r="T16">
-        <v>6.95</v>
+        <v>209464</v>
       </c>
       <c r="Y16">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="Z16" t="s">
         <v>664</v>
@@ -3545,52 +3536,52 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D17" t="s">
-        <v>710</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I17" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M17" t="s">
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>710</v>
+        <v>55</v>
       </c>
       <c r="P17" t="s">
         <v>32</v>
       </c>
       <c r="Q17">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="R17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="S17">
-        <v>0.20468149999999999</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1.9092450000000001</v>
+        <v>218157087</v>
       </c>
       <c r="Y17">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="Z17" t="s">
         <v>664</v>
@@ -3598,52 +3589,43 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>702</v>
       </c>
       <c r="C18" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="D18" t="s">
-        <v>716</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I18" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>712</v>
-      </c>
-      <c r="M18" t="s">
-        <v>39</v>
+        <v>703</v>
       </c>
       <c r="N18" t="s">
-        <v>716</v>
+        <v>83</v>
       </c>
       <c r="P18" t="s">
         <v>32</v>
       </c>
-      <c r="Q18">
-        <v>2012</v>
-      </c>
-      <c r="R18">
-        <v>2021</v>
-      </c>
       <c r="S18">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T18">
-        <v>263091</v>
+        <v>6.95</v>
       </c>
       <c r="Y18">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="Z18" t="s">
         <v>664</v>
@@ -3654,40 +3636,49 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>710</v>
       </c>
       <c r="E19" t="s">
-        <v>661</v>
+        <v>705</v>
+      </c>
+      <c r="I19" t="s">
+        <v>711</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>712</v>
       </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>93</v>
+        <v>710</v>
       </c>
       <c r="P19" t="s">
         <v>32</v>
       </c>
       <c r="Q19">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="R19">
         <v>2021</v>
       </c>
       <c r="S19">
-        <v>1.702168E-4</v>
+        <v>0.20468149999999999</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>1.9092450000000001</v>
+      </c>
+      <c r="Y19">
+        <v>93</v>
       </c>
       <c r="Z19" t="s">
         <v>664</v>
@@ -3695,37 +3686,40 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>716</v>
       </c>
       <c r="E20" t="s">
         <v>704</v>
       </c>
+      <c r="I20" t="s">
+        <v>715</v>
+      </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="M20" t="s">
         <v>39</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>716</v>
       </c>
       <c r="P20" t="s">
         <v>32</v>
       </c>
       <c r="Q20">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="R20">
         <v>2021</v>
@@ -3733,11 +3727,11 @@
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20" s="1">
-        <v>125722</v>
+      <c r="T20">
+        <v>263091</v>
       </c>
       <c r="Y20">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="Z20" t="s">
         <v>664</v>
@@ -3745,16 +3739,16 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>720</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D21" t="s">
-        <v>388</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>661</v>
@@ -3762,14 +3756,11 @@
       <c r="J21" t="s">
         <v>30</v>
       </c>
-      <c r="L21" t="s">
-        <v>719</v>
-      </c>
       <c r="M21" t="s">
         <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>388</v>
+        <v>93</v>
       </c>
       <c r="P21" t="s">
         <v>32</v>
@@ -3781,13 +3772,10 @@
         <v>2021</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.702168E-4</v>
       </c>
       <c r="T21">
         <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>76</v>
       </c>
       <c r="Z21" t="s">
         <v>664</v>
@@ -3795,19 +3783,19 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>717</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>721</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="J22" t="s">
         <v>30</v>
@@ -3819,25 +3807,25 @@
         <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P22" t="s">
         <v>32</v>
       </c>
       <c r="Q22">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R22">
         <v>2021</v>
       </c>
       <c r="S22">
-        <v>0.31802249999999999</v>
-      </c>
-      <c r="T22">
-        <v>0.99000500000000002</v>
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>125722</v>
       </c>
       <c r="Y22">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s">
         <v>664</v>
@@ -3845,19 +3833,19 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>717</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="E23" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J23" t="s">
         <v>30</v>
@@ -3869,7 +3857,7 @@
         <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="P23" t="s">
         <v>32</v>
@@ -3880,8 +3868,8 @@
       <c r="R23">
         <v>2021</v>
       </c>
-      <c r="S23" s="7">
-        <v>0.15</v>
+      <c r="S23">
+        <v>0</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -3898,16 +3886,16 @@
         <v>717</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>721</v>
       </c>
       <c r="C24" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D24" t="s">
-        <v>567</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="J24" t="s">
         <v>30</v>
@@ -3919,46 +3907,146 @@
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>567</v>
+        <v>50</v>
       </c>
       <c r="P24" t="s">
         <v>32</v>
       </c>
       <c r="Q24">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R24">
         <v>2021</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.31802249999999999</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0.99000500000000002</v>
       </c>
       <c r="Y24">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="38" spans="14:19" x14ac:dyDescent="0.4">
-      <c r="S38" s="1"/>
-    </row>
-    <row r="45" spans="14:19" x14ac:dyDescent="0.4">
-      <c r="N45" s="2"/>
-    </row>
-    <row r="67" spans="19:20" x14ac:dyDescent="0.4">
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="A25" t="s">
+        <v>717</v>
+      </c>
+      <c r="B25" t="s">
+        <v>723</v>
+      </c>
+      <c r="C25" t="s">
+        <v>726</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>669</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
+        <v>719</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25">
+        <v>2017</v>
+      </c>
+      <c r="R25">
+        <v>2021</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>76</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" t="s">
+        <v>567</v>
+      </c>
+      <c r="E26" t="s">
+        <v>661</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>719</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" t="s">
+        <v>567</v>
+      </c>
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26">
+        <v>2017</v>
+      </c>
+      <c r="R26">
+        <v>2021</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>76</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="40" spans="14:19" x14ac:dyDescent="0.4">
+      <c r="S40" s="1"/>
+    </row>
+    <row r="47" spans="14:19" x14ac:dyDescent="0.4">
+      <c r="N47" s="2"/>
+    </row>
+    <row r="69" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FAAA34-A9AC-4754-B8BB-EA683A5B913E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53EF57-72A1-45BD-9015-182A86AC3BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="744">
   <si>
     <t>targets</t>
   </si>
@@ -2237,6 +2237,42 @@
   </si>
   <si>
     <t>region_id</t>
+  </si>
+  <si>
+    <t>le_gdp_chl2023.csv</t>
+  </si>
+  <si>
+    <t>le_workforcesize_adj_chl2023.csv</t>
+  </si>
+  <si>
+    <t>le_unemployment_chl2023.csv</t>
+  </si>
+  <si>
+    <t>gdp_usd</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>le_jobs_sector</t>
+  </si>
+  <si>
+    <t>le_wage_sector</t>
+  </si>
+  <si>
+    <t>le_jobs_sector_chl2023.csv</t>
+  </si>
+  <si>
+    <t>le_wage_sector_chl2023.csv</t>
+  </si>
+  <si>
+    <t>wage_usd</t>
   </si>
 </sst>
 </file>
@@ -2744,9 +2780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4032,8 +4068,242 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="A27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>732</v>
+      </c>
+      <c r="D27" t="s">
+        <v>735</v>
+      </c>
+      <c r="E27" t="s">
+        <v>736</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" t="s">
+        <v>738</v>
+      </c>
+      <c r="M27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" t="s">
+        <v>735</v>
+      </c>
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27">
+        <v>2017</v>
+      </c>
+      <c r="R27">
+        <v>2021</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>15281820147</v>
+      </c>
+      <c r="Y27">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>733</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>737</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28">
+        <v>2017</v>
+      </c>
+      <c r="R28">
+        <v>2021</v>
+      </c>
+      <c r="S28">
+        <v>4.8256540000000001</v>
+      </c>
+      <c r="T28">
+        <v>323351.99</v>
+      </c>
+      <c r="Y28">
+        <v>103</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>734</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>661</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29">
+        <v>2017</v>
+      </c>
+      <c r="R29">
+        <v>2021</v>
+      </c>
+      <c r="S29">
+        <v>3.1643370000000002</v>
+      </c>
+      <c r="T29">
+        <v>12.413434000000001</v>
+      </c>
+      <c r="Y29">
+        <v>103</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" t="s">
+        <v>739</v>
+      </c>
+      <c r="C30" t="s">
+        <v>741</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>737</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" t="s">
+        <v>738</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30">
+        <v>2017</v>
+      </c>
+      <c r="R30">
+        <v>2020</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>38601</v>
+      </c>
+      <c r="Y30">
+        <v>100</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" t="s">
+        <v>740</v>
+      </c>
+      <c r="C31" t="s">
+        <v>742</v>
+      </c>
+      <c r="D31" t="s">
+        <v>743</v>
+      </c>
+      <c r="E31" t="s">
+        <v>736</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>738</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q31">
+        <v>2017</v>
+      </c>
+      <c r="R31">
+        <v>2020</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>7711995460</v>
+      </c>
+      <c r="Y31">
+        <v>100</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="40" spans="14:19" x14ac:dyDescent="0.4">
       <c r="S40" s="1"/>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53EF57-72A1-45BD-9015-182A86AC3BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCCF6CE-59CC-4500-A1E8-ED91A3639B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="746">
   <si>
     <t>targets</t>
   </si>
@@ -2273,6 +2273,12 @@
   </si>
   <si>
     <t>wage_usd</t>
+  </si>
+  <si>
+    <t>ao_scores</t>
+  </si>
+  <si>
+    <t>ao_scores_chl2023.csv</t>
   </si>
 </sst>
 </file>
@@ -2780,9 +2786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30:N31"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4302,6 +4308,53 @@
         <v>100</v>
       </c>
       <c r="Z31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>744</v>
+      </c>
+      <c r="C32" t="s">
+        <v>745</v>
+      </c>
+      <c r="D32" t="s">
+        <v>668</v>
+      </c>
+      <c r="E32" t="s">
+        <v>669</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>668</v>
+      </c>
+      <c r="P32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32">
+        <v>2017</v>
+      </c>
+      <c r="R32">
+        <v>2021</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>62.06814</v>
+      </c>
+      <c r="Y32">
+        <v>95</v>
+      </c>
+      <c r="Z32" t="s">
         <v>664</v>
       </c>
     </row>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCCF6CE-59CC-4500-A1E8-ED91A3639B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D64BAB-46DE-4BA9-A3DE-6641F2646C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$73</definedName>
     <definedName name="DatosExternos_1" localSheetId="1">all!$A$1:$Z$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="790">
   <si>
     <t>targets</t>
   </si>
@@ -2279,13 +2279,145 @@
   </si>
   <si>
     <t>ao_scores_chl2023.csv</t>
+  </si>
+  <si>
+    <t>species_diversity_chl2023.csv</t>
+  </si>
+  <si>
+    <t>species_diversity</t>
+  </si>
+  <si>
+    <t>resilience</t>
+  </si>
+  <si>
+    <t>state_fisheries</t>
+  </si>
+  <si>
+    <t>state_fisheries_chl2023.csv</t>
+  </si>
+  <si>
+    <t>area_ramsar</t>
+  </si>
+  <si>
+    <t>area_ramsar_chl2023.csv</t>
+  </si>
+  <si>
+    <t>por_sp_pm_chl_2023.csv</t>
+  </si>
+  <si>
+    <t>por_sp_pm</t>
+  </si>
+  <si>
+    <t>area_mp</t>
+  </si>
+  <si>
+    <t>area_mp_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cum_n_tratamiento_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cum_n_tratamiento</t>
+  </si>
+  <si>
+    <t>fsc_acuicultura_chl2023.csv</t>
+  </si>
+  <si>
+    <t>fsc_pesca_chl2023.csv</t>
+  </si>
+  <si>
+    <t>fsc_amerb_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pcr_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pcr</t>
+  </si>
+  <si>
+    <t>prot</t>
+  </si>
+  <si>
+    <t>prot_chl2023.csv</t>
+  </si>
+  <si>
+    <t>n_opa_chl2023.csv</t>
+  </si>
+  <si>
+    <t>n_opa</t>
+  </si>
+  <si>
+    <t>n_ocomunitarias</t>
+  </si>
+  <si>
+    <t>n_ocomunitarias_chl2023.csv</t>
+  </si>
+  <si>
+    <t>n_fipa_chl2023.csv</t>
+  </si>
+  <si>
+    <t>n_fipa</t>
+  </si>
+  <si>
+    <t>s_muniverde_chl2023.csv</t>
+  </si>
+  <si>
+    <t>s_muniverde</t>
+  </si>
+  <si>
+    <t>lim_playas_chl2023.csv</t>
+  </si>
+  <si>
+    <t>lim_playas</t>
+  </si>
+  <si>
+    <t>in_municipales</t>
+  </si>
+  <si>
+    <t>in_municipales_chl2023.csv</t>
+  </si>
+  <si>
+    <t>com_ccee_chl2023.csv</t>
+  </si>
+  <si>
+    <t>com_ccee</t>
+  </si>
+  <si>
+    <t>com_prd_chl2023.csv</t>
+  </si>
+  <si>
+    <t>com_prd</t>
+  </si>
+  <si>
+    <t>con_eerr_chl2023.csv</t>
+  </si>
+  <si>
+    <t>con_eerr</t>
+  </si>
+  <si>
+    <t>n_explora</t>
+  </si>
+  <si>
+    <t>n_explora_chl2023.csv</t>
+  </si>
+  <si>
+    <t>scam_chl2023.csv</t>
+  </si>
+  <si>
+    <t>scam</t>
+  </si>
+  <si>
+    <t>z_bordecostero</t>
+  </si>
+  <si>
+    <t>z_bordecostero.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2318,6 +2450,12 @@
       <color rgb="FFEAEAEA"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2358,7 +2496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2367,6 +2505,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2784,11 +2923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4358,18 +4497,902 @@
         <v>664</v>
       </c>
     </row>
-    <row r="40" spans="14:19" x14ac:dyDescent="0.4">
-      <c r="S40" s="1"/>
-    </row>
-    <row r="47" spans="14:19" x14ac:dyDescent="0.4">
-      <c r="N47" s="2"/>
-    </row>
-    <row r="69" spans="19:20" x14ac:dyDescent="0.4">
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>201</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>748</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>158</v>
+      </c>
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35">
+        <v>1.12853E-2</v>
+      </c>
+      <c r="T35">
+        <v>0.61869819999999998</v>
+      </c>
+      <c r="Y35">
+        <v>103</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>748</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" t="s">
+        <v>158</v>
+      </c>
+      <c r="P36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36">
+        <v>0.1309524</v>
+      </c>
+      <c r="T36">
+        <v>0.40476190000000001</v>
+      </c>
+      <c r="Y36">
+        <v>103</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>748</v>
+      </c>
+      <c r="B37" t="s">
+        <v>751</v>
+      </c>
+      <c r="C37" t="s">
+        <v>752</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>158</v>
+      </c>
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>6.0889989999999998E-2</v>
+      </c>
+      <c r="Y37">
+        <v>103</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>748</v>
+      </c>
+      <c r="B38" t="s">
+        <v>754</v>
+      </c>
+      <c r="C38" t="s">
+        <v>753</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>158</v>
+      </c>
+      <c r="P38" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>103</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>748</v>
+      </c>
+      <c r="B39" t="s">
+        <v>755</v>
+      </c>
+      <c r="C39" t="s">
+        <v>756</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>158</v>
+      </c>
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0.2546098</v>
+      </c>
+      <c r="Y39">
+        <v>103</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>748</v>
+      </c>
+      <c r="B40" t="s">
+        <v>758</v>
+      </c>
+      <c r="C40" t="s">
+        <v>757</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" t="s">
+        <v>158</v>
+      </c>
+      <c r="P40" t="s">
+        <v>32</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.58333330000000005</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>103</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>748</v>
+      </c>
+      <c r="B41" t="s">
+        <v>759</v>
+      </c>
+      <c r="C41" t="s">
+        <v>759</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" t="s">
+        <v>158</v>
+      </c>
+      <c r="P41" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>32</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>748</v>
+      </c>
+      <c r="B42" t="s">
+        <v>760</v>
+      </c>
+      <c r="C42" t="s">
+        <v>760</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" t="s">
+        <v>158</v>
+      </c>
+      <c r="P42" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>90</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>748</v>
+      </c>
+      <c r="B43" t="s">
+        <v>761</v>
+      </c>
+      <c r="C43" t="s">
+        <v>761</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" t="s">
+        <v>158</v>
+      </c>
+      <c r="P43" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>92</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>748</v>
+      </c>
+      <c r="B44" t="s">
+        <v>763</v>
+      </c>
+      <c r="C44" t="s">
+        <v>762</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" t="s">
+        <v>158</v>
+      </c>
+      <c r="P44" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>103</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>748</v>
+      </c>
+      <c r="B45" t="s">
+        <v>764</v>
+      </c>
+      <c r="C45" t="s">
+        <v>765</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" t="s">
+        <v>158</v>
+      </c>
+      <c r="P45" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>103</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>748</v>
+      </c>
+      <c r="B46" t="s">
+        <v>767</v>
+      </c>
+      <c r="C46" t="s">
+        <v>766</v>
+      </c>
+      <c r="D46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P46" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>103</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>748</v>
+      </c>
+      <c r="B47" t="s">
+        <v>768</v>
+      </c>
+      <c r="C47" t="s">
+        <v>769</v>
+      </c>
+      <c r="D47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" t="s">
+        <v>158</v>
+      </c>
+      <c r="P47" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>103</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>748</v>
+      </c>
+      <c r="B48" t="s">
+        <v>771</v>
+      </c>
+      <c r="C48" t="s">
+        <v>770</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" t="s">
+        <v>158</v>
+      </c>
+      <c r="P48" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>103</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>748</v>
+      </c>
+      <c r="B49" t="s">
+        <v>773</v>
+      </c>
+      <c r="C49" t="s">
+        <v>772</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P49" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>103</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>748</v>
+      </c>
+      <c r="B50" t="s">
+        <v>774</v>
+      </c>
+      <c r="C50" t="s">
+        <v>775</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" t="s">
+        <v>158</v>
+      </c>
+      <c r="P50" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50">
+        <v>8.6535130000000002E-2</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>103</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>748</v>
+      </c>
+      <c r="B51" t="s">
+        <v>776</v>
+      </c>
+      <c r="C51" t="s">
+        <v>777</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" t="s">
+        <v>158</v>
+      </c>
+      <c r="P51" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51">
+        <v>2.7858270000000001E-4</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>103</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>748</v>
+      </c>
+      <c r="B52" t="s">
+        <v>779</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" t="s">
+        <v>158</v>
+      </c>
+      <c r="P52" t="s">
+        <v>32</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>103</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>748</v>
+      </c>
+      <c r="B53" t="s">
+        <v>781</v>
+      </c>
+      <c r="C53" t="s">
+        <v>780</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" t="s">
+        <v>158</v>
+      </c>
+      <c r="P53" t="s">
+        <v>32</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>103</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>748</v>
+      </c>
+      <c r="B54" t="s">
+        <v>783</v>
+      </c>
+      <c r="C54" t="s">
+        <v>782</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" t="s">
+        <v>158</v>
+      </c>
+      <c r="P54" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54">
+        <v>1.2722359999999999E-3</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>103</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>748</v>
+      </c>
+      <c r="B55" t="s">
+        <v>784</v>
+      </c>
+      <c r="C55" t="s">
+        <v>785</v>
+      </c>
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" t="s">
+        <v>158</v>
+      </c>
+      <c r="P55" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55">
+        <v>0.125</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>103</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>748</v>
+      </c>
+      <c r="B56" t="s">
+        <v>787</v>
+      </c>
+      <c r="C56" t="s">
+        <v>786</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" t="s">
+        <v>158</v>
+      </c>
+      <c r="P56" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>103</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>748</v>
+      </c>
+      <c r="B57" t="s">
+        <v>788</v>
+      </c>
+      <c r="C57" t="s">
+        <v>789</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" t="s">
+        <v>158</v>
+      </c>
+      <c r="P57" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>103</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="67" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D64BAB-46DE-4BA9-A3DE-6641F2646C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F2C17E-6E7D-48E2-922F-E8182A2788FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="837">
   <si>
     <t>targets</t>
   </si>
@@ -2411,6 +2411,147 @@
   </si>
   <si>
     <t>z_bordecostero.csv</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>sp_invasoras_chl2023.csv</t>
+  </si>
+  <si>
+    <t>sp_invasoras</t>
+  </si>
+  <si>
+    <t>tursimo_cost_chl2023.csv</t>
+  </si>
+  <si>
+    <t>tursimo_cost</t>
+  </si>
+  <si>
+    <t>des_habitat_marino</t>
+  </si>
+  <si>
+    <t>des_habitat_marino_chl2023.csv</t>
+  </si>
+  <si>
+    <t>inst_artesdepesca_chl2023.csv</t>
+  </si>
+  <si>
+    <t>inst_artesdepesca</t>
+  </si>
+  <si>
+    <t>cc_anomaliast_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cc_anomaliast</t>
+  </si>
+  <si>
+    <t>cc_sataragonita_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cc_sataragonita</t>
+  </si>
+  <si>
+    <t>cc_cotaind</t>
+  </si>
+  <si>
+    <t>cc_cotaind_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pes_ilegal_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pes_ilegal</t>
+  </si>
+  <si>
+    <t>des_habitat_costero_chl2023.csv</t>
+  </si>
+  <si>
+    <t>des_habitat_costero</t>
+  </si>
+  <si>
+    <t>pres_n_proyexplora_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_n_opa_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_n_ocomunitarias_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_n_fipa_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_n_explora_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_s_muniverde_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_lim_playas_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_in_municipales_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_scam_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_com_ccee_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_com_prd_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_con_eerr_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_n_proyexplora</t>
+  </si>
+  <si>
+    <t>pres_n_opa</t>
+  </si>
+  <si>
+    <t>pres_n_ocomunitarias</t>
+  </si>
+  <si>
+    <t>pres_n_fipa</t>
+  </si>
+  <si>
+    <t>pres_n_explora</t>
+  </si>
+  <si>
+    <t>pres_s_muniverde</t>
+  </si>
+  <si>
+    <t>pres_lim_playas</t>
+  </si>
+  <si>
+    <t>pres_in_municipales</t>
+  </si>
+  <si>
+    <t>pres_scam</t>
+  </si>
+  <si>
+    <t>pres_com_ccee</t>
+  </si>
+  <si>
+    <t>pres_com_prd</t>
+  </si>
+  <si>
+    <t>pres_con_eerr</t>
+  </si>
+  <si>
+    <t>traf_maritimo_chl2023.csv</t>
+  </si>
+  <si>
+    <t>traf_maritimo</t>
+  </si>
+  <si>
+    <t>den_cencultivo_chl2023.csv</t>
+  </si>
+  <si>
+    <t>den_cencultivo</t>
   </si>
 </sst>
 </file>
@@ -2923,11 +3064,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4384,6 +4525,9 @@
       <c r="N30" t="s">
         <v>60</v>
       </c>
+      <c r="P30" t="s">
+        <v>32</v>
+      </c>
       <c r="Q30">
         <v>2017</v>
       </c>
@@ -4431,6 +4575,9 @@
       <c r="N31" t="s">
         <v>743</v>
       </c>
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
       <c r="Q31">
         <v>2017</v>
       </c>
@@ -4504,6 +4651,12 @@
       <c r="J33" t="s">
         <v>30</v>
       </c>
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
@@ -4512,6 +4665,12 @@
       <c r="J34" t="s">
         <v>30</v>
       </c>
+      <c r="P34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
@@ -5387,9 +5546,809 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>790</v>
+      </c>
+      <c r="B58" t="s">
+        <v>792</v>
+      </c>
+      <c r="C58" t="s">
+        <v>791</v>
+      </c>
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58">
+        <v>6.7411960000000003E-4</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>9</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>790</v>
+      </c>
+      <c r="B59" t="s">
+        <v>794</v>
+      </c>
+      <c r="C59" t="s">
+        <v>793</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P59" t="s">
+        <v>32</v>
+      </c>
+      <c r="S59">
+        <v>1.0065950000000001E-2</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>103</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>790</v>
+      </c>
+      <c r="B60" t="s">
+        <v>795</v>
+      </c>
+      <c r="C60" t="s">
+        <v>796</v>
+      </c>
+      <c r="D60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>23</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>790</v>
+      </c>
+      <c r="B61" t="s">
+        <v>798</v>
+      </c>
+      <c r="C61" t="s">
+        <v>797</v>
+      </c>
+      <c r="D61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>95</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>790</v>
+      </c>
+      <c r="B62" t="s">
+        <v>800</v>
+      </c>
+      <c r="C62" t="s">
+        <v>799</v>
+      </c>
+      <c r="D62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="s">
+        <v>32</v>
+      </c>
+      <c r="S62">
+        <v>2.2843829999999999E-2</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>103</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>790</v>
+      </c>
+      <c r="B63" t="s">
+        <v>802</v>
+      </c>
+      <c r="C63" t="s">
+        <v>801</v>
+      </c>
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" t="s">
+        <v>30</v>
+      </c>
+      <c r="N63" t="s">
+        <v>79</v>
+      </c>
+      <c r="P63" t="s">
+        <v>32</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>95</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>790</v>
+      </c>
+      <c r="B64" t="s">
+        <v>803</v>
+      </c>
+      <c r="C64" t="s">
+        <v>804</v>
+      </c>
+      <c r="D64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" t="s">
+        <v>52</v>
+      </c>
+      <c r="J64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64">
+        <v>2.1141649999999999E-3</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0.57712521400000005</v>
+      </c>
+      <c r="Y64">
+        <v>103</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>790</v>
+      </c>
+      <c r="B65" t="s">
+        <v>806</v>
+      </c>
+      <c r="C65" t="s">
+        <v>805</v>
+      </c>
+      <c r="D65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="S65" s="1">
+        <v>4.3198359999999999E-6</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>90</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>790</v>
+      </c>
+      <c r="B66" t="s">
+        <v>808</v>
+      </c>
+      <c r="C66" t="s">
+        <v>807</v>
+      </c>
+      <c r="D66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" t="s">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="S66" s="1">
+        <v>5.0344719999999999E-6</v>
+      </c>
+      <c r="T66" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>103</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>790</v>
+      </c>
+      <c r="B67" t="s">
+        <v>821</v>
+      </c>
+      <c r="C67" t="s">
+        <v>809</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" t="s">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" t="s">
+        <v>79</v>
+      </c>
+      <c r="P67" t="s">
+        <v>32</v>
+      </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
+      <c r="Y67">
+        <v>103</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>790</v>
+      </c>
+      <c r="B68" t="s">
+        <v>822</v>
+      </c>
+      <c r="C68" t="s">
+        <v>810</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" t="s">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y68">
+        <v>103</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>790</v>
+      </c>
+      <c r="B69" t="s">
+        <v>823</v>
+      </c>
+      <c r="C69" t="s">
+        <v>811</v>
+      </c>
+      <c r="D69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>79</v>
+      </c>
+      <c r="P69" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y69">
+        <v>103</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>790</v>
+      </c>
+      <c r="B70" t="s">
+        <v>824</v>
+      </c>
+      <c r="C70" t="s">
+        <v>812</v>
+      </c>
+      <c r="D70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s">
+        <v>30</v>
+      </c>
+      <c r="N70" t="s">
+        <v>79</v>
+      </c>
+      <c r="P70" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y70">
+        <v>103</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>790</v>
+      </c>
+      <c r="B71" t="s">
+        <v>825</v>
+      </c>
+      <c r="C71" t="s">
+        <v>813</v>
+      </c>
+      <c r="D71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" t="s">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y71">
+        <v>103</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>790</v>
+      </c>
+      <c r="B72" t="s">
+        <v>826</v>
+      </c>
+      <c r="C72" t="s">
+        <v>814</v>
+      </c>
+      <c r="D72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" t="s">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y72">
+        <v>103</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>790</v>
+      </c>
+      <c r="B73" t="s">
+        <v>827</v>
+      </c>
+      <c r="C73" t="s">
+        <v>815</v>
+      </c>
+      <c r="D73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" t="s">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y73">
+        <v>103</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>790</v>
+      </c>
+      <c r="B74" t="s">
+        <v>828</v>
+      </c>
+      <c r="C74" t="s">
+        <v>816</v>
+      </c>
+      <c r="D74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+      <c r="J74" t="s">
+        <v>30</v>
+      </c>
+      <c r="N74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y74">
+        <v>103</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>790</v>
+      </c>
+      <c r="B75" t="s">
+        <v>829</v>
+      </c>
+      <c r="C75" t="s">
+        <v>817</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
+        <v>52</v>
+      </c>
+      <c r="J75" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y75">
+        <v>103</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>790</v>
+      </c>
+      <c r="B76" t="s">
+        <v>830</v>
+      </c>
+      <c r="C76" t="s">
+        <v>818</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y76">
+        <v>103</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>790</v>
+      </c>
+      <c r="B77" t="s">
+        <v>831</v>
+      </c>
+      <c r="C77" t="s">
+        <v>819</v>
+      </c>
+      <c r="D77" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s">
+        <v>30</v>
+      </c>
+      <c r="N77" t="s">
+        <v>79</v>
+      </c>
+      <c r="P77" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y77">
+        <v>103</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>790</v>
+      </c>
+      <c r="B78" t="s">
+        <v>832</v>
+      </c>
+      <c r="C78" t="s">
+        <v>820</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" t="s">
+        <v>52</v>
+      </c>
+      <c r="J78" t="s">
+        <v>30</v>
+      </c>
+      <c r="N78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y78">
+        <v>103</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>790</v>
+      </c>
+      <c r="B79" t="s">
+        <v>834</v>
+      </c>
+      <c r="C79" t="s">
+        <v>833</v>
+      </c>
+      <c r="D79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" t="s">
+        <v>52</v>
+      </c>
+      <c r="J79" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" t="s">
+        <v>79</v>
+      </c>
+      <c r="P79" t="s">
+        <v>32</v>
+      </c>
+      <c r="S79" s="1">
+        <v>7.8978970000000002E-5</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>103</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>790</v>
+      </c>
+      <c r="B80" t="s">
+        <v>836</v>
+      </c>
+      <c r="C80" t="s">
+        <v>835</v>
+      </c>
+      <c r="D80" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s">
+        <v>30</v>
+      </c>
+      <c r="N80" t="s">
+        <v>79</v>
+      </c>
+      <c r="P80" t="s">
+        <v>32</v>
+      </c>
+      <c r="S80">
+        <v>2.7422059999999997E-4</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>103</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>664</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -5403,7 +6362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F2C17E-6E7D-48E2-922F-E8182A2788FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC54004F-EF1E-4080-8D21-7A39BC9D0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="870" windowWidth="15930" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
     <sheet name="all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$94</definedName>
     <definedName name="DatosExternos_1" localSheetId="1">all!$A$1:$Z$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="871">
   <si>
     <t>targets</t>
   </si>
@@ -2329,12 +2329,6 @@
     <t>fsc_amerb_chl2023.csv</t>
   </si>
   <si>
-    <t>pcr_chl2023.csv</t>
-  </si>
-  <si>
-    <t>pcr</t>
-  </si>
-  <si>
     <t>prot</t>
   </si>
   <si>
@@ -2410,9 +2404,6 @@
     <t>z_bordecostero</t>
   </si>
   <si>
-    <t>z_bordecostero.csv</t>
-  </si>
-  <si>
     <t>pressure</t>
   </si>
   <si>
@@ -2422,12 +2413,6 @@
     <t>sp_invasoras</t>
   </si>
   <si>
-    <t>tursimo_cost_chl2023.csv</t>
-  </si>
-  <si>
-    <t>tursimo_cost</t>
-  </si>
-  <si>
     <t>des_habitat_marino</t>
   </si>
   <si>
@@ -2552,6 +2537,123 @@
   </si>
   <si>
     <t>den_cencultivo</t>
+  </si>
+  <si>
+    <t>CW pressure</t>
+  </si>
+  <si>
+    <t>cw_conindustrial</t>
+  </si>
+  <si>
+    <t>cw_conbasura</t>
+  </si>
+  <si>
+    <t>cw_conindustrial_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_conbasura_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_conbasura_trend_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_conbasura_trend</t>
+  </si>
+  <si>
+    <t>scaled -1-1</t>
+  </si>
+  <si>
+    <t>cw_conquimica_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_conquimica</t>
+  </si>
+  <si>
+    <t>cw_conquimica_trend</t>
+  </si>
+  <si>
+    <t>cw_conquimica_trend_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_conpatogenos_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_conpatogenos</t>
+  </si>
+  <si>
+    <t>cw_conpatogenos_tren</t>
+  </si>
+  <si>
+    <t>cw_conpatogenos_trend_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_connutrientesmar_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_connutrientesmar</t>
+  </si>
+  <si>
+    <t>cw_connutrientesmar_trend</t>
+  </si>
+  <si>
+    <t>cw_connutrientesmar_trend_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_connutrientester</t>
+  </si>
+  <si>
+    <t>cw_connutrientester_trend</t>
+  </si>
+  <si>
+    <t>cw_connutrientester_trend_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cw_connutrientester_chl2023.csv</t>
+  </si>
+  <si>
+    <t>est_rrrdd_chl2023.csv</t>
+  </si>
+  <si>
+    <t>est_rrrdd_chl</t>
+  </si>
+  <si>
+    <t>pres_est_rrrdd_chl2023.csv</t>
+  </si>
+  <si>
+    <t>pres_est_rrrdd</t>
+  </si>
+  <si>
+    <t>prc</t>
+  </si>
+  <si>
+    <t>prc_chl2023.csv</t>
+  </si>
+  <si>
+    <t>turismo_cost</t>
+  </si>
+  <si>
+    <t>turismo_cost_chl2023.csv</t>
+  </si>
+  <si>
+    <t>z_bordecostero_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cp_habitat_trend_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cp_habitat_extent_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cp_habitat_extent</t>
+  </si>
+  <si>
+    <t>cp_habitat_trend</t>
+  </si>
+  <si>
+    <t>cp_habitat_health_chl2023.csv</t>
+  </si>
+  <si>
+    <t>cp_habitat_health</t>
   </si>
 </sst>
 </file>
@@ -3064,11 +3166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4648,11 +4750,47 @@
       <c r="A33" t="s">
         <v>201</v>
       </c>
+      <c r="B33" t="s">
+        <v>867</v>
+      </c>
+      <c r="C33" t="s">
+        <v>866</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>512</v>
+      </c>
       <c r="J33" t="s">
         <v>30</v>
+      </c>
+      <c r="L33" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" t="s">
+        <v>28</v>
       </c>
       <c r="P33" t="s">
         <v>32</v>
+      </c>
+      <c r="Q33">
+        <v>2017</v>
+      </c>
+      <c r="R33">
+        <v>2021</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>9355.9599999999991</v>
+      </c>
+      <c r="Y33">
+        <v>103</v>
       </c>
       <c r="Z33" t="s">
         <v>664</v>
@@ -4662,46 +4800,85 @@
       <c r="A34" t="s">
         <v>201</v>
       </c>
+      <c r="B34" t="s">
+        <v>868</v>
+      </c>
+      <c r="C34" t="s">
+        <v>865</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>667</v>
+      </c>
       <c r="J34" t="s">
         <v>30</v>
+      </c>
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" t="s">
+        <v>74</v>
       </c>
       <c r="P34" t="s">
         <v>32</v>
       </c>
+      <c r="S34">
+        <v>-1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>103</v>
+      </c>
       <c r="Z34" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>748</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>746</v>
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>870</v>
+      </c>
+      <c r="C35" t="s">
+        <v>869</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>661</v>
       </c>
       <c r="J35" t="s">
         <v>30</v>
       </c>
+      <c r="L35" t="s">
+        <v>208</v>
+      </c>
+      <c r="M35" t="s">
+        <v>39</v>
+      </c>
       <c r="N35" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="P35" t="s">
         <v>32</v>
       </c>
+      <c r="Q35">
+        <v>2017</v>
+      </c>
+      <c r="R35">
+        <v>2021</v>
+      </c>
       <c r="S35">
-        <v>1.12853E-2</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>0.61869819999999998</v>
+        <v>100</v>
       </c>
       <c r="Y35">
         <v>103</v>
@@ -4715,10 +4892,10 @@
         <v>748</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D36" t="s">
         <v>158</v>
@@ -4736,10 +4913,10 @@
         <v>32</v>
       </c>
       <c r="S36">
-        <v>0.1309524</v>
+        <v>1.12853E-2</v>
       </c>
       <c r="T36">
-        <v>0.40476190000000001</v>
+        <v>0.61869819999999998</v>
       </c>
       <c r="Y36">
         <v>103</v>
@@ -4752,11 +4929,11 @@
       <c r="A37" t="s">
         <v>748</v>
       </c>
-      <c r="B37" t="s">
-        <v>751</v>
-      </c>
-      <c r="C37" t="s">
-        <v>752</v>
+      <c r="B37" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>750</v>
       </c>
       <c r="D37" t="s">
         <v>158</v>
@@ -4774,10 +4951,10 @@
         <v>32</v>
       </c>
       <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1">
-        <v>6.0889989999999998E-2</v>
+        <v>0.1309524</v>
+      </c>
+      <c r="T37">
+        <v>0.40476190000000001</v>
       </c>
       <c r="Y37">
         <v>103</v>
@@ -4791,10 +4968,10 @@
         <v>748</v>
       </c>
       <c r="B38" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
@@ -4814,8 +4991,8 @@
       <c r="S38">
         <v>0</v>
       </c>
-      <c r="T38">
-        <v>1</v>
+      <c r="T38" s="1">
+        <v>6.0889989999999998E-2</v>
       </c>
       <c r="Y38">
         <v>103</v>
@@ -4829,10 +5006,10 @@
         <v>748</v>
       </c>
       <c r="B39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C39" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
@@ -4852,8 +5029,8 @@
       <c r="S39">
         <v>0</v>
       </c>
-      <c r="T39" s="1">
-        <v>0.2546098</v>
+      <c r="T39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>103</v>
@@ -4867,10 +5044,10 @@
         <v>748</v>
       </c>
       <c r="B40" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D40" t="s">
         <v>158</v>
@@ -4887,11 +5064,11 @@
       <c r="P40" t="s">
         <v>32</v>
       </c>
-      <c r="S40" s="1">
-        <v>0.58333330000000005</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0.2546098</v>
       </c>
       <c r="Y40">
         <v>103</v>
@@ -4905,10 +5082,10 @@
         <v>748</v>
       </c>
       <c r="B41" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C41" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -4925,14 +5102,14 @@
       <c r="P41" t="s">
         <v>32</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41" s="1">
+      <c r="S41" s="1">
+        <v>0.58333330000000005</v>
+      </c>
+      <c r="T41">
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="Z41" t="s">
         <v>664</v>
@@ -4943,10 +5120,10 @@
         <v>748</v>
       </c>
       <c r="B42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D42" t="s">
         <v>158</v>
@@ -4966,11 +5143,11 @@
       <c r="S42">
         <v>0</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="1">
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="s">
         <v>664</v>
@@ -4981,10 +5158,10 @@
         <v>748</v>
       </c>
       <c r="B43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
@@ -5004,11 +5181,11 @@
       <c r="S43">
         <v>0</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T43">
         <v>1</v>
       </c>
       <c r="Y43">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z43" t="s">
         <v>664</v>
@@ -5019,10 +5196,10 @@
         <v>748</v>
       </c>
       <c r="B44" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D44" t="s">
         <v>158</v>
@@ -5042,11 +5219,11 @@
       <c r="S44">
         <v>0</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="1">
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Z44" t="s">
         <v>664</v>
@@ -5057,10 +5234,10 @@
         <v>748</v>
       </c>
       <c r="B45" t="s">
-        <v>764</v>
+        <v>860</v>
       </c>
       <c r="C45" t="s">
-        <v>765</v>
+        <v>861</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
@@ -5080,7 +5257,7 @@
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45">
         <v>1</v>
       </c>
       <c r="Y45">
@@ -5095,10 +5272,10 @@
         <v>748</v>
       </c>
       <c r="B46" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C46" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D46" t="s">
         <v>158</v>
@@ -5109,7 +5286,7 @@
       <c r="J46" t="s">
         <v>30</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="N46" t="s">
         <v>158</v>
       </c>
       <c r="P46" t="s">
@@ -5133,10 +5310,10 @@
         <v>748</v>
       </c>
       <c r="B47" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C47" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D47" t="s">
         <v>158</v>
@@ -5147,7 +5324,7 @@
       <c r="J47" t="s">
         <v>30</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P47" t="s">
@@ -5156,7 +5333,7 @@
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="1">
         <v>1</v>
       </c>
       <c r="Y47">
@@ -5171,10 +5348,10 @@
         <v>748</v>
       </c>
       <c r="B48" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C48" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D48" t="s">
         <v>158</v>
@@ -5194,7 +5371,7 @@
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48">
         <v>1</v>
       </c>
       <c r="Y48">
@@ -5209,10 +5386,10 @@
         <v>748</v>
       </c>
       <c r="B49" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C49" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D49" t="s">
         <v>158</v>
@@ -5223,7 +5400,7 @@
       <c r="J49" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" t="s">
         <v>158</v>
       </c>
       <c r="P49" t="s">
@@ -5232,7 +5409,7 @@
       <c r="S49">
         <v>0</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="1">
         <v>1</v>
       </c>
       <c r="Y49">
@@ -5247,10 +5424,10 @@
         <v>748</v>
       </c>
       <c r="B50" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C50" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D50" t="s">
         <v>158</v>
@@ -5261,16 +5438,16 @@
       <c r="J50" t="s">
         <v>30</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P50" t="s">
         <v>32</v>
       </c>
       <c r="S50">
-        <v>8.6535130000000002E-2</v>
-      </c>
-      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <v>1</v>
       </c>
       <c r="Y50">
@@ -5285,10 +5462,10 @@
         <v>748</v>
       </c>
       <c r="B51" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C51" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D51" t="s">
         <v>158</v>
@@ -5306,9 +5483,9 @@
         <v>32</v>
       </c>
       <c r="S51">
-        <v>2.7858270000000001E-4</v>
-      </c>
-      <c r="T51">
+        <v>8.6535130000000002E-2</v>
+      </c>
+      <c r="T51" s="1">
         <v>1</v>
       </c>
       <c r="Y51">
@@ -5323,10 +5500,10 @@
         <v>748</v>
       </c>
       <c r="B52" t="s">
-        <v>779</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>778</v>
+        <v>774</v>
+      </c>
+      <c r="C52" t="s">
+        <v>775</v>
       </c>
       <c r="D52" t="s">
         <v>158</v>
@@ -5344,9 +5521,9 @@
         <v>32</v>
       </c>
       <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52" s="1">
+        <v>2.7858270000000001E-4</v>
+      </c>
+      <c r="T52">
         <v>1</v>
       </c>
       <c r="Y52">
@@ -5361,10 +5538,10 @@
         <v>748</v>
       </c>
       <c r="B53" t="s">
-        <v>781</v>
-      </c>
-      <c r="C53" t="s">
-        <v>780</v>
+        <v>777</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>776</v>
       </c>
       <c r="D53" t="s">
         <v>158</v>
@@ -5384,7 +5561,7 @@
       <c r="S53">
         <v>0</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="1">
         <v>1</v>
       </c>
       <c r="Y53">
@@ -5399,10 +5576,10 @@
         <v>748</v>
       </c>
       <c r="B54" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C54" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D54" t="s">
         <v>158</v>
@@ -5420,9 +5597,9 @@
         <v>32</v>
       </c>
       <c r="S54">
-        <v>1.2722359999999999E-3</v>
-      </c>
-      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54">
         <v>1</v>
       </c>
       <c r="Y54">
@@ -5437,10 +5614,10 @@
         <v>748</v>
       </c>
       <c r="B55" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C55" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D55" t="s">
         <v>158</v>
@@ -5458,9 +5635,9 @@
         <v>32</v>
       </c>
       <c r="S55">
-        <v>0.125</v>
-      </c>
-      <c r="T55">
+        <v>1.2722359999999999E-3</v>
+      </c>
+      <c r="T55" s="1">
         <v>1</v>
       </c>
       <c r="Y55">
@@ -5475,10 +5652,10 @@
         <v>748</v>
       </c>
       <c r="B56" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C56" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D56" t="s">
         <v>158</v>
@@ -5496,9 +5673,9 @@
         <v>32</v>
       </c>
       <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="T56">
         <v>1</v>
       </c>
       <c r="Y56">
@@ -5513,10 +5690,10 @@
         <v>748</v>
       </c>
       <c r="B57" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C57" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D57" t="s">
         <v>158</v>
@@ -5536,7 +5713,7 @@
       <c r="S57">
         <v>0</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="1">
         <v>1</v>
       </c>
       <c r="Y57">
@@ -5548,16 +5725,16 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="B58" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C58" t="s">
-        <v>791</v>
+        <v>864</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
         <v>52</v>
@@ -5566,19 +5743,19 @@
         <v>30</v>
       </c>
       <c r="N58" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="P58" t="s">
         <v>32</v>
       </c>
       <c r="S58">
-        <v>6.7411960000000003E-4</v>
-      </c>
-      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="Z58" t="s">
         <v>664</v>
@@ -5586,16 +5763,16 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>790</v>
-      </c>
-      <c r="B59" t="s">
-        <v>794</v>
-      </c>
-      <c r="C59" t="s">
-        <v>793</v>
+        <v>748</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>856</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E59" t="s">
         <v>52</v>
@@ -5604,15 +5781,15 @@
         <v>30</v>
       </c>
       <c r="N59" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="P59" t="s">
         <v>32</v>
       </c>
       <c r="S59">
-        <v>1.0065950000000001E-2</v>
-      </c>
-      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
         <v>1</v>
       </c>
       <c r="Y59">
@@ -5624,13 +5801,13 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B60" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C60" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D60" t="s">
         <v>79</v>
@@ -5648,13 +5825,13 @@
         <v>32</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>6.7411960000000003E-4</v>
       </c>
       <c r="T60" s="1">
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Z60" t="s">
         <v>664</v>
@@ -5662,13 +5839,13 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B61" t="s">
-        <v>798</v>
+        <v>862</v>
       </c>
       <c r="C61" t="s">
-        <v>797</v>
+        <v>863</v>
       </c>
       <c r="D61" t="s">
         <v>79</v>
@@ -5686,13 +5863,13 @@
         <v>32</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1.0065950000000001E-2</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Z61" t="s">
         <v>664</v>
@@ -5700,13 +5877,13 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>787</v>
+      </c>
+      <c r="B62" t="s">
         <v>790</v>
       </c>
-      <c r="B62" t="s">
-        <v>800</v>
-      </c>
       <c r="C62" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D62" t="s">
         <v>79</v>
@@ -5724,13 +5901,13 @@
         <v>32</v>
       </c>
       <c r="S62">
-        <v>2.2843829999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="Z62" t="s">
         <v>664</v>
@@ -5738,13 +5915,13 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B63" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C63" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -5776,13 +5953,13 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B64" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C64" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
@@ -5800,10 +5977,10 @@
         <v>32</v>
       </c>
       <c r="S64">
-        <v>2.1141649999999999E-3</v>
+        <v>2.2843829999999999E-2</v>
       </c>
       <c r="T64" s="1">
-        <v>0.57712521400000005</v>
+        <v>1</v>
       </c>
       <c r="Y64">
         <v>103</v>
@@ -5814,13 +5991,13 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B65" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C65" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D65" t="s">
         <v>79</v>
@@ -5837,14 +6014,14 @@
       <c r="P65" t="s">
         <v>32</v>
       </c>
-      <c r="S65" s="1">
-        <v>4.3198359999999999E-6</v>
+      <c r="S65">
+        <v>0</v>
       </c>
       <c r="T65">
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Z65" t="s">
         <v>664</v>
@@ -5852,13 +6029,13 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B66" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C66" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D66" t="s">
         <v>79</v>
@@ -5875,11 +6052,11 @@
       <c r="P66" t="s">
         <v>32</v>
       </c>
-      <c r="S66" s="1">
-        <v>5.0344719999999999E-6</v>
+      <c r="S66">
+        <v>2.1141649999999999E-3</v>
       </c>
       <c r="T66" s="1">
-        <v>1</v>
+        <v>0.57712521400000005</v>
       </c>
       <c r="Y66">
         <v>103</v>
@@ -5890,13 +6067,13 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B67" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="C67" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D67" t="s">
         <v>79</v>
@@ -5913,10 +6090,14 @@
       <c r="P67" t="s">
         <v>32</v>
       </c>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="S67" s="1">
+        <v>4.3198359999999999E-6</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
       <c r="Y67">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Z67" t="s">
         <v>664</v>
@@ -5924,13 +6105,13 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B68" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="C68" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D68" t="s">
         <v>79</v>
@@ -5947,6 +6128,12 @@
       <c r="P68" t="s">
         <v>32</v>
       </c>
+      <c r="S68" s="1">
+        <v>5.0344719999999999E-6</v>
+      </c>
+      <c r="T68" s="1">
+        <v>1</v>
+      </c>
       <c r="Y68">
         <v>103</v>
       </c>
@@ -5956,13 +6143,13 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B69" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C69" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D69" t="s">
         <v>79</v>
@@ -5979,6 +6166,8 @@
       <c r="P69" t="s">
         <v>32</v>
       </c>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
       <c r="Y69">
         <v>103</v>
       </c>
@@ -5988,13 +6177,13 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B70" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C70" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
@@ -6020,13 +6209,13 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B71" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C71" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D71" t="s">
         <v>79</v>
@@ -6052,13 +6241,13 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B72" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C72" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D72" t="s">
         <v>79</v>
@@ -6084,13 +6273,13 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B73" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C73" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D73" t="s">
         <v>79</v>
@@ -6116,13 +6305,13 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B74" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C74" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
@@ -6148,13 +6337,13 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B75" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C75" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D75" t="s">
         <v>79</v>
@@ -6180,13 +6369,13 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B76" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C76" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D76" t="s">
         <v>79</v>
@@ -6212,13 +6401,13 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B77" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C77" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -6244,13 +6433,13 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B78" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C78" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D78" t="s">
         <v>79</v>
@@ -6276,13 +6465,13 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B79" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="C79" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="D79" t="s">
         <v>79</v>
@@ -6299,12 +6488,6 @@
       <c r="P79" t="s">
         <v>32</v>
       </c>
-      <c r="S79" s="1">
-        <v>7.8978970000000002E-5</v>
-      </c>
-      <c r="T79">
-        <v>1</v>
-      </c>
       <c r="Y79">
         <v>103</v>
       </c>
@@ -6314,13 +6497,13 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B80" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C80" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
@@ -6337,12 +6520,6 @@
       <c r="P80" t="s">
         <v>32</v>
       </c>
-      <c r="S80">
-        <v>2.7422059999999997E-4</v>
-      </c>
-      <c r="T80">
-        <v>1</v>
-      </c>
       <c r="Y80">
         <v>103</v>
       </c>
@@ -6350,8 +6527,579 @@
         <v>664</v>
       </c>
     </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>787</v>
+      </c>
+      <c r="B81" t="s">
+        <v>829</v>
+      </c>
+      <c r="C81" t="s">
+        <v>828</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" t="s">
+        <v>79</v>
+      </c>
+      <c r="P81" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="1">
+        <v>7.8978970000000002E-5</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>103</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>787</v>
+      </c>
+      <c r="B82" t="s">
+        <v>831</v>
+      </c>
+      <c r="C82" t="s">
+        <v>830</v>
+      </c>
+      <c r="D82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+      <c r="J82" t="s">
+        <v>30</v>
+      </c>
+      <c r="N82" t="s">
+        <v>79</v>
+      </c>
+      <c r="P82" t="s">
+        <v>32</v>
+      </c>
+      <c r="S82">
+        <v>2.7422059999999997E-4</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>103</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>787</v>
+      </c>
+      <c r="B83" t="s">
+        <v>859</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="D83" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P83" t="s">
+        <v>32</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>103</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>787</v>
+      </c>
+      <c r="B84" t="s">
+        <v>833</v>
+      </c>
+      <c r="C84" t="s">
+        <v>835</v>
+      </c>
+      <c r="D84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="J84" t="s">
+        <v>30</v>
+      </c>
+      <c r="N84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" t="s">
+        <v>32</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>100</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>832</v>
+      </c>
+      <c r="B85" t="s">
+        <v>834</v>
+      </c>
+      <c r="C85" t="s">
+        <v>836</v>
+      </c>
+      <c r="D85" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+      <c r="J85" t="s">
+        <v>30</v>
+      </c>
+      <c r="N85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="s">
+        <v>32</v>
+      </c>
+      <c r="S85">
+        <v>6.4211044199366898E-4</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="Y85">
+        <v>103</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" t="s">
+        <v>838</v>
+      </c>
+      <c r="C86" t="s">
+        <v>837</v>
+      </c>
+      <c r="D86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" t="s">
+        <v>839</v>
+      </c>
+      <c r="J86" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" t="s">
+        <v>39</v>
+      </c>
+      <c r="N86" t="s">
+        <v>74</v>
+      </c>
+      <c r="P86" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q86">
+        <v>2021</v>
+      </c>
+      <c r="R86">
+        <v>2021</v>
+      </c>
+      <c r="S86">
+        <v>-1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="Y86">
+        <v>103</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>832</v>
+      </c>
+      <c r="B87" t="s">
+        <v>852</v>
+      </c>
+      <c r="C87" t="s">
+        <v>855</v>
+      </c>
+      <c r="D87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" t="s">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s">
+        <v>30</v>
+      </c>
+      <c r="N87" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" t="s">
+        <v>32</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <v>23</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" t="s">
+        <v>853</v>
+      </c>
+      <c r="C88" t="s">
+        <v>854</v>
+      </c>
+      <c r="D88" t="s">
+        <v>74</v>
+      </c>
+      <c r="E88" t="s">
+        <v>839</v>
+      </c>
+      <c r="J88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" t="s">
+        <v>39</v>
+      </c>
+      <c r="N88" t="s">
+        <v>74</v>
+      </c>
+      <c r="P88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q88">
+        <v>2021</v>
+      </c>
+      <c r="R88">
+        <v>2021</v>
+      </c>
+      <c r="S88">
+        <v>-1</v>
+      </c>
+      <c r="T88">
+        <v>2.1335900000000001E-2</v>
+      </c>
+      <c r="Y88">
+        <v>23</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>832</v>
+      </c>
+      <c r="B89" t="s">
+        <v>841</v>
+      </c>
+      <c r="C89" t="s">
+        <v>840</v>
+      </c>
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" t="s">
+        <v>52</v>
+      </c>
+      <c r="J89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N89" t="s">
+        <v>79</v>
+      </c>
+      <c r="P89" t="s">
+        <v>32</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s">
+        <v>842</v>
+      </c>
+      <c r="C90" t="s">
+        <v>843</v>
+      </c>
+      <c r="D90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E90" t="s">
+        <v>839</v>
+      </c>
+      <c r="J90" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" t="s">
+        <v>39</v>
+      </c>
+      <c r="N90" t="s">
+        <v>74</v>
+      </c>
+      <c r="P90" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q90">
+        <v>2021</v>
+      </c>
+      <c r="R90">
+        <v>2021</v>
+      </c>
+      <c r="S90">
+        <v>-1</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>103</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>832</v>
+      </c>
+      <c r="B91" t="s">
+        <v>845</v>
+      </c>
+      <c r="C91" t="s">
+        <v>844</v>
+      </c>
+      <c r="D91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" t="s">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N91" t="s">
+        <v>79</v>
+      </c>
+      <c r="P91" t="s">
+        <v>32</v>
+      </c>
+      <c r="S91">
+        <v>4.0024200000000003E-2</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <v>103</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" t="s">
+        <v>846</v>
+      </c>
+      <c r="C92" t="s">
+        <v>847</v>
+      </c>
+      <c r="D92" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" t="s">
+        <v>52</v>
+      </c>
+      <c r="J92" t="s">
+        <v>30</v>
+      </c>
+      <c r="M92" t="s">
+        <v>39</v>
+      </c>
+      <c r="N92" t="s">
+        <v>74</v>
+      </c>
+      <c r="P92" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q92">
+        <v>2021</v>
+      </c>
+      <c r="R92">
+        <v>2021</v>
+      </c>
+      <c r="S92" s="1">
+        <v>-3.334682E-15</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="Y92">
+        <v>103</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>832</v>
+      </c>
+      <c r="B93" t="s">
+        <v>849</v>
+      </c>
+      <c r="C93" t="s">
+        <v>848</v>
+      </c>
+      <c r="D93" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" t="s">
+        <v>839</v>
+      </c>
+      <c r="J93" t="s">
+        <v>30</v>
+      </c>
+      <c r="N93" t="s">
+        <v>79</v>
+      </c>
+      <c r="P93" t="s">
+        <v>32</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <v>23</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" t="s">
+        <v>850</v>
+      </c>
+      <c r="C94" t="s">
+        <v>851</v>
+      </c>
+      <c r="D94" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" t="s">
+        <v>52</v>
+      </c>
+      <c r="J94" t="s">
+        <v>30</v>
+      </c>
+      <c r="M94" t="s">
+        <v>39</v>
+      </c>
+      <c r="N94" t="s">
+        <v>74</v>
+      </c>
+      <c r="P94" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q94">
+        <v>2021</v>
+      </c>
+      <c r="R94">
+        <v>2021</v>
+      </c>
+      <c r="S94">
+        <v>-1</v>
+      </c>
+      <c r="T94" s="1">
+        <v>2.1335900000000001E-2</v>
+      </c>
+      <c r="Y94">
+        <v>23</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>664</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC54004F-EF1E-4080-8D21-7A39BC9D0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC47BC05-61B0-42F3-95BD-5AD1032F7A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="870" windowWidth="15930" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
     <sheet name="all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$96</definedName>
     <definedName name="DatosExternos_1" localSheetId="1">all!$A$1:$Z$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="881">
   <si>
     <t>targets</t>
   </si>
@@ -2065,9 +2065,6 @@
     <t>~/github/chl/comunas/layers/ico_spp_status_chl2021.csv</t>
   </si>
   <si>
-    <t>Specie</t>
-  </si>
-  <si>
     <t>tr_factor</t>
   </si>
   <si>
@@ -2257,9 +2254,6 @@
     <t>numero</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>le_jobs_sector</t>
   </si>
   <si>
@@ -2654,6 +2648,42 @@
   </si>
   <si>
     <t>cp_habitat_health</t>
+  </si>
+  <si>
+    <t>le_sector_weight_chl2023.csv</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>element_wts_lsp_km2_x_protection_chl2023.csv</t>
+  </si>
+  <si>
+    <t>element_wts_lsp_km2_x_protection</t>
+  </si>
+  <si>
+    <t>element_wts_hab_pres_abs_chl2023.csv</t>
+  </si>
+  <si>
+    <t>specie</t>
+  </si>
+  <si>
+    <t>cs_area</t>
+  </si>
+  <si>
+    <t>cs_area_chl2023.csv</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>hab_area</t>
+  </si>
+  <si>
+    <t>hab_area_chl2023.csv</t>
   </si>
 </sst>
 </file>
@@ -3166,16 +3196,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="11" width="11.3828125" customWidth="1"/>
+    <col min="1" max="2" width="11.3828125" customWidth="1"/>
+    <col min="3" max="3" width="45.3828125" customWidth="1"/>
+    <col min="4" max="11" width="11.3828125" customWidth="1"/>
     <col min="12" max="12" width="14.61328125" customWidth="1"/>
     <col min="13" max="25" width="11.3828125" customWidth="1"/>
     <col min="26" max="26" width="13.23046875" customWidth="1"/>
@@ -3270,13 +3302,13 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>877</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>878</v>
       </c>
       <c r="F2" t="s">
         <v>654</v>
@@ -3294,7 +3326,7 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>204</v>
+        <v>877</v>
       </c>
       <c r="P2" t="s">
         <v>32</v>
@@ -3326,7 +3358,7 @@
         <v>651</v>
       </c>
       <c r="C3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D3" t="s">
         <v>656</v>
@@ -3352,9 +3384,6 @@
       <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3">
-        <v>2017</v>
-      </c>
       <c r="R3">
         <v>2021</v>
       </c>
@@ -3373,72 +3402,63 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
+        <v>875</v>
       </c>
       <c r="C4" t="s">
-        <v>691</v>
+        <v>876</v>
       </c>
       <c r="D4" t="s">
-        <v>660</v>
+        <v>877</v>
       </c>
       <c r="E4" t="s">
-        <v>661</v>
-      </c>
-      <c r="I4" t="s">
-        <v>662</v>
+        <v>877</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>208</v>
       </c>
       <c r="N4" t="s">
-        <v>660</v>
+        <v>877</v>
       </c>
       <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4">
-        <v>2017</v>
-      </c>
-      <c r="R4">
-        <v>2021</v>
-      </c>
       <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>100</v>
+        <v>8370215</v>
+      </c>
+      <c r="T4" s="1">
+        <v>32015173863</v>
       </c>
       <c r="Y4">
         <v>103</v>
       </c>
       <c r="Z4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E5" t="s">
         <v>661</v>
       </c>
       <c r="I5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -3447,7 +3467,7 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="P5" t="s">
         <v>32</v>
@@ -3462,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="Y5">
         <v>103</v>
@@ -3471,39 +3491,48 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>659</v>
       </c>
       <c r="E6" t="s">
-        <v>669</v>
-      </c>
-      <c r="H6" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="I6" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="L6" t="s">
-        <v>674</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>659</v>
       </c>
       <c r="P6" t="s">
         <v>32</v>
+      </c>
+      <c r="Q6">
+        <v>2017</v>
+      </c>
+      <c r="R6">
+        <v>2021</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>97.2</v>
       </c>
       <c r="Y6">
         <v>103</v>
@@ -3517,31 +3546,31 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D7" t="s">
-        <v>668</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>674</v>
+        <v>874</v>
       </c>
       <c r="O7" t="s">
-        <v>668</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
@@ -3555,46 +3584,37 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D8" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E8" t="s">
-        <v>676</v>
+        <v>667</v>
+      </c>
+      <c r="H8" t="s">
+        <v>671</v>
       </c>
       <c r="I8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" t="s">
-        <v>676</v>
+      <c r="L8" t="s">
+        <v>874</v>
+      </c>
+      <c r="O8" t="s">
+        <v>668</v>
       </c>
       <c r="P8" t="s">
         <v>32</v>
-      </c>
-      <c r="Q8">
-        <v>2017</v>
-      </c>
-      <c r="R8">
-        <v>2021</v>
-      </c>
-      <c r="S8">
-        <v>0.1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
       </c>
       <c r="Y8">
         <v>103</v>
@@ -3608,19 +3628,19 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>674</v>
       </c>
       <c r="C9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>675</v>
       </c>
       <c r="E9" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="I9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -3629,7 +3649,7 @@
         <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>675</v>
       </c>
       <c r="P9" t="s">
         <v>32</v>
@@ -3641,10 +3661,10 @@
         <v>2021</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T9">
-        <v>0.59299999999999997</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>103</v>
@@ -3658,19 +3678,19 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="I10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
@@ -3679,7 +3699,7 @@
         <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
         <v>32</v>
@@ -3691,10 +3711,10 @@
         <v>2021</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1.1176470000000001</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="Y10">
         <v>103</v>
@@ -3705,37 +3725,49 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>596</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>675</v>
+      </c>
+      <c r="I11" t="s">
+        <v>678</v>
       </c>
       <c r="J11" t="s">
-        <v>731</v>
-      </c>
-      <c r="L11" t="s">
-        <v>730</v>
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
       </c>
       <c r="P11" t="s">
         <v>32</v>
       </c>
+      <c r="Q11">
+        <v>2017</v>
+      </c>
+      <c r="R11">
+        <v>2021</v>
+      </c>
       <c r="S11">
-        <v>50.499250000000004</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>90.476190000000003</v>
+        <v>1.1176470000000001</v>
       </c>
       <c r="Y11">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Z11" t="s">
         <v>664</v>
@@ -3746,31 +3778,34 @@
         <v>595</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C12" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>667</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L12" t="s">
-        <v>730</v>
+        <v>729</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
       </c>
       <c r="P12" t="s">
         <v>32</v>
       </c>
       <c r="S12">
-        <v>-0.5</v>
+        <v>50.499250000000004</v>
       </c>
       <c r="T12">
-        <v>0.5</v>
+        <v>90.476190000000003</v>
       </c>
       <c r="Y12">
         <v>97</v>
@@ -3781,52 +3816,40 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>595</v>
       </c>
       <c r="B13" t="s">
-        <v>680</v>
+        <v>602</v>
       </c>
       <c r="C13" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I13" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>730</v>
       </c>
       <c r="L13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M13" t="s">
-        <v>39</v>
+        <v>729</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
       </c>
-      <c r="Q13">
-        <v>2017</v>
-      </c>
-      <c r="R13">
-        <v>2021</v>
-      </c>
       <c r="S13">
-        <v>3.0673250000000001E-3</v>
+        <v>-0.5</v>
       </c>
       <c r="T13">
-        <v>14287.677</v>
+        <v>0.5</v>
       </c>
       <c r="Y13">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Z13" t="s">
         <v>664</v>
@@ -3834,40 +3857,49 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>679</v>
       </c>
       <c r="C14" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="K14" t="s">
-        <v>681</v>
+      <c r="L14" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="6">
-        <v>8.370215</v>
+      <c r="Q14">
+        <v>2017</v>
+      </c>
+      <c r="R14">
+        <v>2021</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>32015.422158000001</v>
+        <v>9353.9599999999991</v>
       </c>
       <c r="Y14">
         <v>103</v>
@@ -3878,13 +3910,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>685</v>
+        <v>879</v>
       </c>
       <c r="C15" t="s">
-        <v>699</v>
+        <v>880</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -3892,23 +3924,17 @@
       <c r="E15" t="s">
         <v>204</v>
       </c>
-      <c r="I15" t="s">
-        <v>686</v>
-      </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" t="s">
         <v>28</v>
       </c>
-      <c r="P15" t="s">
-        <v>32</v>
-      </c>
       <c r="S15">
-        <v>27</v>
+        <v>74.922910000000002</v>
       </c>
       <c r="T15">
-        <v>454769</v>
+        <v>32216.824089999998</v>
       </c>
       <c r="Y15">
         <v>103</v>
@@ -3922,10 +3948,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>688</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -3934,22 +3960,25 @@
         <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
       </c>
+      <c r="K16" t="s">
+        <v>680</v>
+      </c>
       <c r="N16" t="s">
         <v>28</v>
       </c>
       <c r="P16" t="s">
         <v>32</v>
       </c>
-      <c r="S16">
-        <v>84</v>
+      <c r="S16" s="6">
+        <v>8.370215</v>
       </c>
       <c r="T16">
-        <v>209464</v>
+        <v>32015.422158000001</v>
       </c>
       <c r="Y16">
         <v>103</v>
@@ -3960,52 +3989,40 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>684</v>
       </c>
       <c r="C17" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>704</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="L17" t="s">
-        <v>709</v>
-      </c>
-      <c r="M17" t="s">
-        <v>39</v>
-      </c>
       <c r="N17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="P17" t="s">
         <v>32</v>
       </c>
-      <c r="Q17">
-        <v>2017</v>
-      </c>
-      <c r="R17">
-        <v>2022</v>
-      </c>
       <c r="S17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T17">
-        <v>218157087</v>
+        <v>454769</v>
       </c>
       <c r="Y17">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="Z17" t="s">
         <v>664</v>
@@ -4013,43 +4030,40 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="C18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>705</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c r="L18" t="s">
-        <v>703</v>
-      </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="P18" t="s">
         <v>32</v>
       </c>
       <c r="S18">
-        <v>3.85</v>
+        <v>84</v>
       </c>
       <c r="T18">
-        <v>6.95</v>
+        <v>209464</v>
       </c>
       <c r="Y18">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="Z18" t="s">
         <v>664</v>
@@ -4057,52 +4071,52 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D19" t="s">
-        <v>710</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I19" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>710</v>
+        <v>55</v>
       </c>
       <c r="P19" t="s">
         <v>32</v>
       </c>
       <c r="Q19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="R19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="S19">
-        <v>0.20468149999999999</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1.9092450000000001</v>
+        <v>218157087</v>
       </c>
       <c r="Y19">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="Z19" t="s">
         <v>664</v>
@@ -4110,52 +4124,43 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>701</v>
       </c>
       <c r="C20" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D20" t="s">
-        <v>716</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>704</v>
       </c>
       <c r="I20" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>712</v>
-      </c>
-      <c r="M20" t="s">
-        <v>39</v>
+        <v>702</v>
       </c>
       <c r="N20" t="s">
-        <v>716</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s">
         <v>32</v>
       </c>
-      <c r="Q20">
-        <v>2012</v>
-      </c>
-      <c r="R20">
-        <v>2021</v>
-      </c>
       <c r="S20">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T20">
-        <v>263091</v>
+        <v>6.95</v>
       </c>
       <c r="Y20">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="Z20" t="s">
         <v>664</v>
@@ -4166,40 +4171,49 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>709</v>
       </c>
       <c r="E21" t="s">
-        <v>661</v>
+        <v>704</v>
+      </c>
+      <c r="I21" t="s">
+        <v>710</v>
       </c>
       <c r="J21" t="s">
         <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>711</v>
       </c>
       <c r="M21" t="s">
         <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>709</v>
       </c>
       <c r="P21" t="s">
         <v>32</v>
       </c>
       <c r="Q21">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="R21">
         <v>2021</v>
       </c>
       <c r="S21">
-        <v>1.702168E-4</v>
+        <v>0.20468149999999999</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>1.9092450000000001</v>
+      </c>
+      <c r="Y21">
+        <v>93</v>
       </c>
       <c r="Z21" t="s">
         <v>664</v>
@@ -4207,37 +4221,40 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="E22" t="s">
-        <v>704</v>
+        <v>703</v>
+      </c>
+      <c r="I22" t="s">
+        <v>714</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="M22" t="s">
         <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="P22" t="s">
         <v>32</v>
       </c>
       <c r="Q22">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="R22">
         <v>2021</v>
@@ -4245,11 +4262,11 @@
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="1">
-        <v>125722</v>
+      <c r="T22">
+        <v>263091</v>
       </c>
       <c r="Y22">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="Z22" t="s">
         <v>664</v>
@@ -4257,16 +4274,16 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>720</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D23" t="s">
-        <v>388</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>661</v>
@@ -4274,14 +4291,11 @@
       <c r="J23" t="s">
         <v>30</v>
       </c>
-      <c r="L23" t="s">
-        <v>719</v>
-      </c>
       <c r="M23" t="s">
         <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>388</v>
+        <v>93</v>
       </c>
       <c r="P23" t="s">
         <v>32</v>
@@ -4293,13 +4307,10 @@
         <v>2021</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.702168E-4</v>
       </c>
       <c r="T23">
         <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>76</v>
       </c>
       <c r="Z23" t="s">
         <v>664</v>
@@ -4307,49 +4318,49 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
         <v>717</v>
       </c>
-      <c r="B24" t="s">
-        <v>721</v>
-      </c>
-      <c r="C24" t="s">
-        <v>722</v>
-      </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="J24" t="s">
         <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M24" t="s">
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P24" t="s">
         <v>32</v>
       </c>
       <c r="Q24">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R24">
         <v>2021</v>
       </c>
       <c r="S24">
-        <v>0.31802249999999999</v>
-      </c>
-      <c r="T24">
-        <v>0.99000500000000002</v>
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>125722</v>
       </c>
       <c r="Y24">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s">
         <v>664</v>
@@ -4357,31 +4368,31 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>717</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C25" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="E25" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J25" t="s">
         <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M25" t="s">
         <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="P25" t="s">
         <v>32</v>
@@ -4392,8 +4403,8 @@
       <c r="R25">
         <v>2021</v>
       </c>
-      <c r="S25" s="7">
-        <v>0.15</v>
+      <c r="S25">
+        <v>0</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -4407,49 +4418,49 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>720</v>
       </c>
       <c r="C26" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D26" t="s">
-        <v>567</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="J26" t="s">
         <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M26" t="s">
         <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>567</v>
+        <v>50</v>
       </c>
       <c r="P26" t="s">
         <v>32</v>
       </c>
       <c r="Q26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R26">
         <v>2021</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.31802249999999999</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0.99000500000000002</v>
       </c>
       <c r="Y26">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="s">
         <v>664</v>
@@ -4457,31 +4468,31 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>716</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>722</v>
       </c>
       <c r="C27" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="D27" t="s">
-        <v>735</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
       <c r="J27" t="s">
         <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="M27" t="s">
         <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>735</v>
+        <v>50</v>
       </c>
       <c r="P27" t="s">
         <v>32</v>
@@ -4492,14 +4503,14 @@
       <c r="R27">
         <v>2021</v>
       </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>15281820147</v>
+      <c r="S27" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s">
         <v>664</v>
@@ -4507,28 +4518,31 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>716</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>567</v>
       </c>
       <c r="E28" t="s">
-        <v>737</v>
+        <v>661</v>
       </c>
       <c r="J28" t="s">
         <v>30</v>
+      </c>
+      <c r="L28" t="s">
+        <v>718</v>
       </c>
       <c r="M28" t="s">
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>60</v>
+        <v>567</v>
       </c>
       <c r="P28" t="s">
         <v>32</v>
@@ -4540,13 +4554,13 @@
         <v>2021</v>
       </c>
       <c r="S28">
-        <v>4.8256540000000001</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>323351.99</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s">
         <v>664</v>
@@ -4557,25 +4571,28 @@
         <v>348</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
+        <v>731</v>
+      </c>
+      <c r="D29" t="s">
         <v>734</v>
       </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
       <c r="E29" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="J29" t="s">
         <v>30</v>
+      </c>
+      <c r="L29" t="s">
+        <v>62</v>
       </c>
       <c r="M29" t="s">
         <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>66</v>
+        <v>734</v>
       </c>
       <c r="P29" t="s">
         <v>32</v>
@@ -4586,14 +4603,14 @@
       <c r="R29">
         <v>2021</v>
       </c>
-      <c r="S29">
-        <v>3.1643370000000002</v>
-      </c>
-      <c r="T29">
-        <v>12.413434000000001</v>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>15281820147</v>
       </c>
       <c r="Y29">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="Z29" t="s">
         <v>664</v>
@@ -4604,22 +4621,19 @@
         <v>348</v>
       </c>
       <c r="B30" t="s">
-        <v>739</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J30" t="s">
         <v>30</v>
-      </c>
-      <c r="L30" t="s">
-        <v>738</v>
       </c>
       <c r="M30" t="s">
         <v>39</v>
@@ -4634,16 +4648,16 @@
         <v>2017</v>
       </c>
       <c r="R30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>4.8256540000000001</v>
       </c>
       <c r="T30">
-        <v>38601</v>
+        <v>323351.99</v>
       </c>
       <c r="Y30">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Z30" t="s">
         <v>664</v>
@@ -4654,28 +4668,25 @@
         <v>348</v>
       </c>
       <c r="B31" t="s">
-        <v>740</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D31" t="s">
-        <v>743</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>736</v>
+        <v>661</v>
       </c>
       <c r="J31" t="s">
         <v>30</v>
-      </c>
-      <c r="L31" t="s">
-        <v>738</v>
       </c>
       <c r="M31" t="s">
         <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>743</v>
+        <v>66</v>
       </c>
       <c r="P31" t="s">
         <v>32</v>
@@ -4684,16 +4695,16 @@
         <v>2017</v>
       </c>
       <c r="R31">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>3.1643370000000002</v>
       </c>
       <c r="T31">
-        <v>7711995460</v>
+        <v>12.413434000000001</v>
       </c>
       <c r="Y31">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Z31" t="s">
         <v>664</v>
@@ -4701,28 +4712,31 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C32" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D32" t="s">
-        <v>668</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>669</v>
+        <v>736</v>
       </c>
       <c r="J32" t="s">
         <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>62</v>
       </c>
       <c r="M32" t="s">
         <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>668</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
         <v>32</v>
@@ -4731,16 +4745,16 @@
         <v>2017</v>
       </c>
       <c r="R32">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>62.06814</v>
+        <v>38601</v>
       </c>
       <c r="Y32">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z32" t="s">
         <v>664</v>
@@ -4748,31 +4762,31 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="B33" t="s">
-        <v>867</v>
+        <v>738</v>
       </c>
       <c r="C33" t="s">
-        <v>866</v>
+        <v>740</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>741</v>
       </c>
       <c r="E33" t="s">
-        <v>512</v>
+        <v>735</v>
       </c>
       <c r="J33" t="s">
         <v>30</v>
       </c>
       <c r="L33" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="M33" t="s">
         <v>39</v>
       </c>
       <c r="N33" t="s">
-        <v>28</v>
+        <v>741</v>
       </c>
       <c r="P33" t="s">
         <v>32</v>
@@ -4781,16 +4795,16 @@
         <v>2017</v>
       </c>
       <c r="R33">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>9355.9599999999991</v>
+        <v>7711995460</v>
       </c>
       <c r="Y33">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Z33" t="s">
         <v>664</v>
@@ -4798,40 +4812,46 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>868</v>
+        <v>742</v>
       </c>
       <c r="C34" t="s">
-        <v>865</v>
+        <v>743</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>668</v>
       </c>
       <c r="E34" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="J34" t="s">
         <v>30</v>
       </c>
-      <c r="L34" t="s">
-        <v>208</v>
+      <c r="M34" t="s">
+        <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>74</v>
+        <v>668</v>
       </c>
       <c r="P34" t="s">
         <v>32</v>
       </c>
+      <c r="Q34">
+        <v>2017</v>
+      </c>
+      <c r="R34">
+        <v>2021</v>
+      </c>
       <c r="S34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>62.06814</v>
       </c>
       <c r="Y34">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Z34" t="s">
         <v>664</v>
@@ -4842,16 +4862,16 @@
         <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C35" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>661</v>
+        <v>512</v>
       </c>
       <c r="J35" t="s">
         <v>30</v>
@@ -4863,7 +4883,7 @@
         <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="P35" t="s">
         <v>32</v>
@@ -4878,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>100</v>
+        <v>9355.9599999999991</v>
       </c>
       <c r="Y35">
         <v>103</v>
@@ -4889,34 +4909,37 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>748</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>746</v>
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>866</v>
+      </c>
+      <c r="C36" t="s">
+        <v>863</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>667</v>
       </c>
       <c r="J36" t="s">
         <v>30</v>
       </c>
+      <c r="L36" t="s">
+        <v>208</v>
+      </c>
       <c r="N36" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="P36" t="s">
         <v>32</v>
       </c>
       <c r="S36">
-        <v>1.12853E-2</v>
+        <v>-1</v>
       </c>
       <c r="T36">
-        <v>0.61869819999999998</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>103</v>
@@ -4927,34 +4950,46 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>748</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>750</v>
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>868</v>
+      </c>
+      <c r="C37" t="s">
+        <v>867</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>661</v>
       </c>
       <c r="J37" t="s">
         <v>30</v>
       </c>
+      <c r="L37" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" t="s">
+        <v>39</v>
+      </c>
       <c r="N37" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="P37" t="s">
         <v>32</v>
       </c>
+      <c r="Q37">
+        <v>2017</v>
+      </c>
+      <c r="R37">
+        <v>2021</v>
+      </c>
       <c r="S37">
-        <v>0.1309524</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0.40476190000000001</v>
+        <v>100</v>
       </c>
       <c r="Y37">
         <v>103</v>
@@ -4965,13 +5000,13 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>748</v>
-      </c>
-      <c r="B38" t="s">
-        <v>751</v>
-      </c>
-      <c r="C38" t="s">
-        <v>752</v>
+        <v>746</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>744</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
@@ -4989,10 +5024,10 @@
         <v>32</v>
       </c>
       <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>6.0889989999999998E-2</v>
+        <v>1.12853E-2</v>
+      </c>
+      <c r="T38">
+        <v>0.61869819999999998</v>
       </c>
       <c r="Y38">
         <v>103</v>
@@ -5003,13 +5038,13 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>746</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>748</v>
-      </c>
-      <c r="B39" t="s">
-        <v>754</v>
-      </c>
-      <c r="C39" t="s">
-        <v>753</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
@@ -5027,10 +5062,10 @@
         <v>32</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.1309524</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0.40476190000000001</v>
       </c>
       <c r="Y39">
         <v>103</v>
@@ -5041,13 +5076,13 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B40" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C40" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D40" t="s">
         <v>158</v>
@@ -5068,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <v>0.2546098</v>
+        <v>6.0889989999999998E-2</v>
       </c>
       <c r="Y40">
         <v>103</v>
@@ -5079,13 +5114,13 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B41" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C41" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -5102,8 +5137,8 @@
       <c r="P41" t="s">
         <v>32</v>
       </c>
-      <c r="S41" s="1">
-        <v>0.58333330000000005</v>
+      <c r="S41">
+        <v>0</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -5117,13 +5152,13 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B42" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C42" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D42" t="s">
         <v>158</v>
@@ -5144,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="T42" s="1">
-        <v>1</v>
+        <v>0.2546098</v>
       </c>
       <c r="Y42">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="Z42" t="s">
         <v>664</v>
@@ -5155,13 +5190,13 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B43" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C43" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
@@ -5178,14 +5213,14 @@
       <c r="P43" t="s">
         <v>32</v>
       </c>
-      <c r="S43">
-        <v>0</v>
+      <c r="S43" s="1">
+        <v>0.58333330000000005</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="Y43">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="Z43" t="s">
         <v>664</v>
@@ -5193,13 +5228,13 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B44" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C44" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D44" t="s">
         <v>158</v>
@@ -5223,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="Z44" t="s">
         <v>664</v>
@@ -5231,13 +5266,13 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B45" t="s">
-        <v>860</v>
+        <v>758</v>
       </c>
       <c r="C45" t="s">
-        <v>861</v>
+        <v>758</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
@@ -5261,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Z45" t="s">
         <v>664</v>
@@ -5269,13 +5304,13 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B46" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C46" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D46" t="s">
         <v>158</v>
@@ -5299,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="Y46">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Z46" t="s">
         <v>664</v>
@@ -5307,13 +5342,13 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B47" t="s">
-        <v>765</v>
+        <v>858</v>
       </c>
       <c r="C47" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
       <c r="D47" t="s">
         <v>158</v>
@@ -5324,7 +5359,7 @@
       <c r="J47" t="s">
         <v>30</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" t="s">
         <v>158</v>
       </c>
       <c r="P47" t="s">
@@ -5333,7 +5368,7 @@
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47">
         <v>1</v>
       </c>
       <c r="Y47">
@@ -5345,13 +5380,13 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B48" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C48" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D48" t="s">
         <v>158</v>
@@ -5371,7 +5406,7 @@
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="1">
         <v>1</v>
       </c>
       <c r="Y48">
@@ -5383,13 +5418,13 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B49" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C49" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D49" t="s">
         <v>158</v>
@@ -5400,7 +5435,7 @@
       <c r="J49" t="s">
         <v>30</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P49" t="s">
@@ -5421,13 +5456,13 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B50" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C50" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D50" t="s">
         <v>158</v>
@@ -5438,7 +5473,7 @@
       <c r="J50" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N50" t="s">
         <v>158</v>
       </c>
       <c r="P50" t="s">
@@ -5459,13 +5494,13 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B51" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C51" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D51" t="s">
         <v>158</v>
@@ -5483,7 +5518,7 @@
         <v>32</v>
       </c>
       <c r="S51">
-        <v>8.6535130000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="T51" s="1">
         <v>1</v>
@@ -5497,13 +5532,13 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B52" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C52" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D52" t="s">
         <v>158</v>
@@ -5514,14 +5549,14 @@
       <c r="J52" t="s">
         <v>30</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P52" t="s">
         <v>32</v>
       </c>
       <c r="S52">
-        <v>2.7858270000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -5535,13 +5570,13 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B53" t="s">
-        <v>777</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>776</v>
+        <v>771</v>
+      </c>
+      <c r="C53" t="s">
+        <v>770</v>
       </c>
       <c r="D53" t="s">
         <v>158</v>
@@ -5559,7 +5594,7 @@
         <v>32</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>8.6535130000000002E-2</v>
       </c>
       <c r="T53" s="1">
         <v>1</v>
@@ -5573,13 +5608,13 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B54" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C54" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D54" t="s">
         <v>158</v>
@@ -5597,7 +5632,7 @@
         <v>32</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>2.7858270000000001E-4</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -5611,13 +5646,13 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B55" t="s">
-        <v>781</v>
-      </c>
-      <c r="C55" t="s">
-        <v>780</v>
+        <v>775</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>774</v>
       </c>
       <c r="D55" t="s">
         <v>158</v>
@@ -5635,7 +5670,7 @@
         <v>32</v>
       </c>
       <c r="S55">
-        <v>1.2722359999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="T55" s="1">
         <v>1</v>
@@ -5649,13 +5684,13 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B56" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C56" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D56" t="s">
         <v>158</v>
@@ -5673,7 +5708,7 @@
         <v>32</v>
       </c>
       <c r="S56">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>1</v>
@@ -5687,13 +5722,13 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B57" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C57" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D57" t="s">
         <v>158</v>
@@ -5711,7 +5746,7 @@
         <v>32</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>1.2722359999999999E-3</v>
       </c>
       <c r="T57" s="1">
         <v>1</v>
@@ -5725,13 +5760,13 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B58" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C58" t="s">
-        <v>864</v>
+        <v>781</v>
       </c>
       <c r="D58" t="s">
         <v>158</v>
@@ -5749,7 +5784,7 @@
         <v>32</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="T58">
         <v>1</v>
@@ -5763,13 +5798,13 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>748</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>856</v>
+        <v>746</v>
+      </c>
+      <c r="B59" t="s">
+        <v>783</v>
+      </c>
+      <c r="C59" t="s">
+        <v>782</v>
       </c>
       <c r="D59" t="s">
         <v>158</v>
@@ -5801,16 +5836,16 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>787</v>
+        <v>746</v>
       </c>
       <c r="B60" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C60" t="s">
-        <v>788</v>
+        <v>862</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
         <v>52</v>
@@ -5819,19 +5854,19 @@
         <v>30</v>
       </c>
       <c r="N60" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="P60" t="s">
         <v>32</v>
       </c>
       <c r="S60">
-        <v>6.7411960000000003E-4</v>
-      </c>
-      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60">
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="Z60" t="s">
         <v>664</v>
@@ -5839,16 +5874,16 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>787</v>
-      </c>
-      <c r="B61" t="s">
-        <v>862</v>
-      </c>
-      <c r="C61" t="s">
-        <v>863</v>
+        <v>746</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>854</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
         <v>52</v>
@@ -5857,15 +5892,15 @@
         <v>30</v>
       </c>
       <c r="N61" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="P61" t="s">
         <v>32</v>
       </c>
       <c r="S61">
-        <v>1.0065950000000001E-2</v>
-      </c>
-      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
         <v>1</v>
       </c>
       <c r="Y61">
@@ -5877,13 +5912,13 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>785</v>
+      </c>
+      <c r="B62" t="s">
         <v>787</v>
       </c>
-      <c r="B62" t="s">
-        <v>790</v>
-      </c>
       <c r="C62" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D62" t="s">
         <v>79</v>
@@ -5901,13 +5936,13 @@
         <v>32</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>6.7411960000000003E-4</v>
       </c>
       <c r="T62" s="1">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Z62" t="s">
         <v>664</v>
@@ -5915,13 +5950,13 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>860</v>
       </c>
       <c r="C63" t="s">
-        <v>792</v>
+        <v>861</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -5939,13 +5974,13 @@
         <v>32</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1.0065950000000001E-2</v>
       </c>
       <c r="T63">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Z63" t="s">
         <v>664</v>
@@ -5953,13 +5988,13 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B64" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C64" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
@@ -5977,13 +6012,13 @@
         <v>32</v>
       </c>
       <c r="S64">
-        <v>2.2843829999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="Z64" t="s">
         <v>664</v>
@@ -5991,13 +6026,13 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B65" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C65" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D65" t="s">
         <v>79</v>
@@ -6029,13 +6064,13 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B66" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C66" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D66" t="s">
         <v>79</v>
@@ -6053,10 +6088,10 @@
         <v>32</v>
       </c>
       <c r="S66">
-        <v>2.1141649999999999E-3</v>
+        <v>2.2843829999999999E-2</v>
       </c>
       <c r="T66" s="1">
-        <v>0.57712521400000005</v>
+        <v>1</v>
       </c>
       <c r="Y66">
         <v>103</v>
@@ -6067,13 +6102,13 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B67" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C67" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D67" t="s">
         <v>79</v>
@@ -6090,14 +6125,14 @@
       <c r="P67" t="s">
         <v>32</v>
       </c>
-      <c r="S67" s="1">
-        <v>4.3198359999999999E-6</v>
+      <c r="S67">
+        <v>0</v>
       </c>
       <c r="T67">
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Z67" t="s">
         <v>664</v>
@@ -6105,13 +6140,13 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B68" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C68" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D68" t="s">
         <v>79</v>
@@ -6128,11 +6163,11 @@
       <c r="P68" t="s">
         <v>32</v>
       </c>
-      <c r="S68" s="1">
-        <v>5.0344719999999999E-6</v>
+      <c r="S68">
+        <v>2.1141649999999999E-3</v>
       </c>
       <c r="T68" s="1">
-        <v>1</v>
+        <v>0.57712521400000005</v>
       </c>
       <c r="Y68">
         <v>103</v>
@@ -6143,13 +6178,13 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B69" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="C69" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D69" t="s">
         <v>79</v>
@@ -6166,10 +6201,14 @@
       <c r="P69" t="s">
         <v>32</v>
       </c>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+      <c r="S69" s="1">
+        <v>4.3198359999999999E-6</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
       <c r="Y69">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Z69" t="s">
         <v>664</v>
@@ -6177,13 +6216,13 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B70" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="C70" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
@@ -6200,6 +6239,12 @@
       <c r="P70" t="s">
         <v>32</v>
       </c>
+      <c r="S70" s="1">
+        <v>5.0344719999999999E-6</v>
+      </c>
+      <c r="T70" s="1">
+        <v>1</v>
+      </c>
       <c r="Y70">
         <v>103</v>
       </c>
@@ -6209,13 +6254,13 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B71" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C71" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D71" t="s">
         <v>79</v>
@@ -6232,6 +6277,8 @@
       <c r="P71" t="s">
         <v>32</v>
       </c>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
       <c r="Y71">
         <v>103</v>
       </c>
@@ -6241,13 +6288,13 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B72" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C72" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D72" t="s">
         <v>79</v>
@@ -6273,13 +6320,13 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B73" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C73" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D73" t="s">
         <v>79</v>
@@ -6305,13 +6352,13 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B74" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C74" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
@@ -6337,13 +6384,13 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B75" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C75" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D75" t="s">
         <v>79</v>
@@ -6369,13 +6416,13 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B76" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C76" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D76" t="s">
         <v>79</v>
@@ -6401,13 +6448,13 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B77" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C77" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -6433,13 +6480,13 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B78" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C78" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D78" t="s">
         <v>79</v>
@@ -6465,13 +6512,13 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B79" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C79" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D79" t="s">
         <v>79</v>
@@ -6497,13 +6544,13 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B80" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C80" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
@@ -6529,13 +6576,13 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B81" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C81" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="D81" t="s">
         <v>79</v>
@@ -6552,12 +6599,6 @@
       <c r="P81" t="s">
         <v>32</v>
       </c>
-      <c r="S81" s="1">
-        <v>7.8978970000000002E-5</v>
-      </c>
-      <c r="T81">
-        <v>1</v>
-      </c>
       <c r="Y81">
         <v>103</v>
       </c>
@@ -6567,13 +6608,13 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B82" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C82" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="D82" t="s">
         <v>79</v>
@@ -6590,12 +6631,6 @@
       <c r="P82" t="s">
         <v>32</v>
       </c>
-      <c r="S82">
-        <v>2.7422059999999997E-4</v>
-      </c>
-      <c r="T82">
-        <v>1</v>
-      </c>
       <c r="Y82">
         <v>103</v>
       </c>
@@ -6605,13 +6640,13 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B83" t="s">
-        <v>859</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>858</v>
+        <v>827</v>
+      </c>
+      <c r="C83" t="s">
+        <v>826</v>
       </c>
       <c r="D83" t="s">
         <v>79</v>
@@ -6628,8 +6663,8 @@
       <c r="P83" t="s">
         <v>32</v>
       </c>
-      <c r="S83">
-        <v>0</v>
+      <c r="S83" s="1">
+        <v>7.8978970000000002E-5</v>
       </c>
       <c r="T83">
         <v>1</v>
@@ -6643,13 +6678,13 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B84" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C84" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D84" t="s">
         <v>79</v>
@@ -6667,13 +6702,13 @@
         <v>32</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>2.7422059999999997E-4</v>
       </c>
       <c r="T84">
         <v>1</v>
       </c>
       <c r="Y84">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Z84" t="s">
         <v>664</v>
@@ -6681,13 +6716,13 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>832</v>
+        <v>785</v>
       </c>
       <c r="B85" t="s">
-        <v>834</v>
-      </c>
-      <c r="C85" t="s">
-        <v>836</v>
+        <v>857</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>856</v>
       </c>
       <c r="D85" t="s">
         <v>79</v>
@@ -6705,7 +6740,7 @@
         <v>32</v>
       </c>
       <c r="S85">
-        <v>6.4211044199366898E-4</v>
+        <v>0</v>
       </c>
       <c r="T85">
         <v>1</v>
@@ -6719,46 +6754,37 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>785</v>
       </c>
       <c r="B86" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="C86" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E86" t="s">
-        <v>839</v>
+        <v>52</v>
       </c>
       <c r="J86" t="s">
         <v>30</v>
       </c>
-      <c r="M86" t="s">
-        <v>39</v>
-      </c>
       <c r="N86" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P86" t="s">
         <v>32</v>
       </c>
-      <c r="Q86">
-        <v>2021</v>
-      </c>
-      <c r="R86">
-        <v>2021</v>
-      </c>
       <c r="S86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>1</v>
       </c>
       <c r="Y86">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Z86" t="s">
         <v>664</v>
@@ -6766,13 +6792,13 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
+        <v>830</v>
+      </c>
+      <c r="B87" t="s">
         <v>832</v>
       </c>
-      <c r="B87" t="s">
-        <v>852</v>
-      </c>
       <c r="C87" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="D87" t="s">
         <v>79</v>
@@ -6790,13 +6816,13 @@
         <v>32</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>6.4211044199366898E-4</v>
       </c>
       <c r="T87">
         <v>1</v>
       </c>
       <c r="Y87">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Z87" t="s">
         <v>664</v>
@@ -6807,16 +6833,16 @@
         <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="C88" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="D88" t="s">
         <v>74</v>
       </c>
       <c r="E88" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J88" t="s">
         <v>30</v>
@@ -6840,10 +6866,10 @@
         <v>-1</v>
       </c>
       <c r="T88">
-        <v>2.1335900000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="Y88">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Z88" t="s">
         <v>664</v>
@@ -6851,13 +6877,13 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B89" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C89" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="D89" t="s">
         <v>79</v>
@@ -6879,6 +6905,12 @@
       </c>
       <c r="T89">
         <v>1</v>
+      </c>
+      <c r="Y89">
+        <v>23</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.4">
@@ -6886,16 +6918,16 @@
         <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="C90" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="D90" t="s">
         <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J90" t="s">
         <v>30</v>
@@ -6919,10 +6951,10 @@
         <v>-1</v>
       </c>
       <c r="T90">
-        <v>1</v>
+        <v>2.1335900000000001E-2</v>
       </c>
       <c r="Y90">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="Z90" t="s">
         <v>664</v>
@@ -6930,13 +6962,13 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B91" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C91" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D91" t="s">
         <v>79</v>
@@ -6954,16 +6986,10 @@
         <v>32</v>
       </c>
       <c r="S91">
-        <v>4.0024200000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="T91">
         <v>1</v>
-      </c>
-      <c r="Y91">
-        <v>103</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.4">
@@ -6971,16 +6997,16 @@
         <v>73</v>
       </c>
       <c r="B92" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C92" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D92" t="s">
         <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>837</v>
       </c>
       <c r="J92" t="s">
         <v>30</v>
@@ -7000,8 +7026,8 @@
       <c r="R92">
         <v>2021</v>
       </c>
-      <c r="S92" s="1">
-        <v>-3.334682E-15</v>
+      <c r="S92">
+        <v>-1</v>
       </c>
       <c r="T92">
         <v>1</v>
@@ -7015,19 +7041,19 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B93" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C93" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D93" t="s">
         <v>79</v>
       </c>
       <c r="E93" t="s">
-        <v>839</v>
+        <v>52</v>
       </c>
       <c r="J93" t="s">
         <v>30</v>
@@ -7039,13 +7065,13 @@
         <v>32</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>4.0024200000000003E-2</v>
       </c>
       <c r="T93">
         <v>1</v>
       </c>
       <c r="Y93">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Z93" t="s">
         <v>664</v>
@@ -7056,10 +7082,10 @@
         <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C94" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D94" t="s">
         <v>74</v>
@@ -7085,21 +7111,229 @@
       <c r="R94">
         <v>2021</v>
       </c>
-      <c r="S94">
-        <v>-1</v>
-      </c>
-      <c r="T94" s="1">
-        <v>2.1335900000000001E-2</v>
+      <c r="S94" s="1">
+        <v>-3.334682E-15</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
       </c>
       <c r="Y94">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Z94" t="s">
         <v>664</v>
       </c>
     </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>830</v>
+      </c>
+      <c r="B95" t="s">
+        <v>847</v>
+      </c>
+      <c r="C95" t="s">
+        <v>846</v>
+      </c>
+      <c r="D95" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" t="s">
+        <v>837</v>
+      </c>
+      <c r="J95" t="s">
+        <v>30</v>
+      </c>
+      <c r="N95" t="s">
+        <v>79</v>
+      </c>
+      <c r="P95" t="s">
+        <v>32</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <v>23</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" t="s">
+        <v>848</v>
+      </c>
+      <c r="C96" t="s">
+        <v>849</v>
+      </c>
+      <c r="D96" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" t="s">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" t="s">
+        <v>39</v>
+      </c>
+      <c r="N96" t="s">
+        <v>74</v>
+      </c>
+      <c r="P96" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q96">
+        <v>2021</v>
+      </c>
+      <c r="R96">
+        <v>2021</v>
+      </c>
+      <c r="S96">
+        <v>-1</v>
+      </c>
+      <c r="T96" s="1">
+        <v>2.1335900000000001E-2</v>
+      </c>
+      <c r="Y96">
+        <v>23</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>388</v>
+      </c>
+      <c r="B97" t="s">
+        <v>386</v>
+      </c>
+      <c r="C97" t="s">
+        <v>869</v>
+      </c>
+      <c r="D97" t="s">
+        <v>388</v>
+      </c>
+      <c r="E97" t="s">
+        <v>661</v>
+      </c>
+      <c r="J97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L97" t="s">
+        <v>62</v>
+      </c>
+      <c r="N97" t="s">
+        <v>388</v>
+      </c>
+      <c r="P97" t="s">
+        <v>32</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <v>103</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>388</v>
+      </c>
+      <c r="B98" t="s">
+        <v>634</v>
+      </c>
+      <c r="C98" t="s">
+        <v>873</v>
+      </c>
+      <c r="D98" t="s">
+        <v>636</v>
+      </c>
+      <c r="E98" t="s">
+        <v>870</v>
+      </c>
+      <c r="J98" t="s">
+        <v>30</v>
+      </c>
+      <c r="L98" t="s">
+        <v>208</v>
+      </c>
+      <c r="N98" t="s">
+        <v>636</v>
+      </c>
+      <c r="P98" t="s">
+        <v>32</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="Y98">
+        <v>103</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>388</v>
+      </c>
+      <c r="B99" t="s">
+        <v>872</v>
+      </c>
+      <c r="C99" t="s">
+        <v>871</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" t="s">
+        <v>204</v>
+      </c>
+      <c r="J99" t="s">
+        <v>30</v>
+      </c>
+      <c r="L99" t="s">
+        <v>208</v>
+      </c>
+      <c r="N99" t="s">
+        <v>28</v>
+      </c>
+      <c r="P99" t="s">
+        <v>32</v>
+      </c>
+      <c r="S99">
+        <v>27</v>
+      </c>
+      <c r="T99">
+        <v>454769</v>
+      </c>
+      <c r="Y99">
+        <v>103</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>664</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC47BC05-61B0-42F3-95BD-5AD1032F7A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64651528-2621-440D-BD86-FCED1021B2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$97</definedName>
     <definedName name="DatosExternos_1" localSheetId="1">all!$A$1:$Z$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="886">
   <si>
     <t>targets</t>
   </si>
@@ -2302,12 +2302,6 @@
     <t>por_sp_pm</t>
   </si>
   <si>
-    <t>area_mp</t>
-  </si>
-  <si>
-    <t>area_mp_chl2023.csv</t>
-  </si>
-  <si>
     <t>cum_n_tratamiento_chl2023.csv</t>
   </si>
   <si>
@@ -2605,12 +2599,6 @@
     <t>cw_connutrientester_chl2023.csv</t>
   </si>
   <si>
-    <t>est_rrrdd_chl2023.csv</t>
-  </si>
-  <si>
-    <t>est_rrrdd_chl</t>
-  </si>
-  <si>
     <t>pres_est_rrrdd_chl2023.csv</t>
   </si>
   <si>
@@ -2684,6 +2672,33 @@
   </si>
   <si>
     <t>hab_area_chl2023.csv</t>
+  </si>
+  <si>
+    <t>areas_mp</t>
+  </si>
+  <si>
+    <t>areas_mp_chl2023.csv</t>
+  </si>
+  <si>
+    <t>fsc_acuicultura</t>
+  </si>
+  <si>
+    <t>fsc_pesca</t>
+  </si>
+  <si>
+    <t>fsc_amerb</t>
+  </si>
+  <si>
+    <t>est_rrdd_chl2023.csv</t>
+  </si>
+  <si>
+    <t>est_rrdd</t>
+  </si>
+  <si>
+    <t>n_anid</t>
+  </si>
+  <si>
+    <t>n_anid_chl2023.csv</t>
   </si>
 </sst>
 </file>
@@ -3196,11 +3211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z99"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA59" sqref="AA59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3305,10 +3320,10 @@
         <v>688</v>
       </c>
       <c r="D2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F2" t="s">
         <v>654</v>
@@ -3326,7 +3341,7 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="P2" t="s">
         <v>32</v>
@@ -3405,16 +3420,16 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C4" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -3423,7 +3438,7 @@
         <v>208</v>
       </c>
       <c r="N4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="P4" t="s">
         <v>32</v>
@@ -3567,7 +3582,7 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="O7" t="s">
         <v>74</v>
@@ -3608,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="O8" t="s">
         <v>668</v>
@@ -3913,10 +3928,10 @@
         <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C15" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -4862,10 +4877,10 @@
         <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C35" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -4912,10 +4927,10 @@
         <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C36" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -4953,10 +4968,10 @@
         <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C37" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D37" t="s">
         <v>243</v>
@@ -5155,10 +5170,10 @@
         <v>746</v>
       </c>
       <c r="B42" t="s">
-        <v>753</v>
+        <v>877</v>
       </c>
       <c r="C42" t="s">
-        <v>754</v>
+        <v>878</v>
       </c>
       <c r="D42" t="s">
         <v>158</v>
@@ -5193,10 +5208,10 @@
         <v>746</v>
       </c>
       <c r="B43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C43" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
@@ -5231,10 +5246,10 @@
         <v>746</v>
       </c>
       <c r="B44" t="s">
-        <v>757</v>
+        <v>879</v>
       </c>
       <c r="C44" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D44" t="s">
         <v>158</v>
@@ -5269,10 +5284,10 @@
         <v>746</v>
       </c>
       <c r="B45" t="s">
-        <v>758</v>
+        <v>880</v>
       </c>
       <c r="C45" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
@@ -5307,10 +5322,10 @@
         <v>746</v>
       </c>
       <c r="B46" t="s">
-        <v>759</v>
+        <v>881</v>
       </c>
       <c r="C46" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D46" t="s">
         <v>158</v>
@@ -5345,10 +5360,10 @@
         <v>746</v>
       </c>
       <c r="B47" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C47" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D47" t="s">
         <v>158</v>
@@ -5383,10 +5398,10 @@
         <v>746</v>
       </c>
       <c r="B48" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C48" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D48" t="s">
         <v>158</v>
@@ -5421,10 +5436,10 @@
         <v>746</v>
       </c>
       <c r="B49" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C49" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D49" t="s">
         <v>158</v>
@@ -5459,10 +5474,10 @@
         <v>746</v>
       </c>
       <c r="B50" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C50" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D50" t="s">
         <v>158</v>
@@ -5497,10 +5512,10 @@
         <v>746</v>
       </c>
       <c r="B51" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C51" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D51" t="s">
         <v>158</v>
@@ -5535,10 +5550,10 @@
         <v>746</v>
       </c>
       <c r="B52" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C52" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D52" t="s">
         <v>158</v>
@@ -5573,10 +5588,10 @@
         <v>746</v>
       </c>
       <c r="B53" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C53" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D53" t="s">
         <v>158</v>
@@ -5611,10 +5626,10 @@
         <v>746</v>
       </c>
       <c r="B54" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C54" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D54" t="s">
         <v>158</v>
@@ -5649,10 +5664,10 @@
         <v>746</v>
       </c>
       <c r="B55" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D55" t="s">
         <v>158</v>
@@ -5687,10 +5702,10 @@
         <v>746</v>
       </c>
       <c r="B56" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C56" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D56" t="s">
         <v>158</v>
@@ -5725,10 +5740,10 @@
         <v>746</v>
       </c>
       <c r="B57" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C57" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D57" t="s">
         <v>158</v>
@@ -5763,10 +5778,10 @@
         <v>746</v>
       </c>
       <c r="B58" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C58" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D58" t="s">
         <v>158</v>
@@ -5801,10 +5816,10 @@
         <v>746</v>
       </c>
       <c r="B59" t="s">
-        <v>783</v>
+        <v>884</v>
       </c>
       <c r="C59" t="s">
-        <v>782</v>
+        <v>885</v>
       </c>
       <c r="D59" t="s">
         <v>158</v>
@@ -5839,10 +5854,10 @@
         <v>746</v>
       </c>
       <c r="B60" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C60" t="s">
-        <v>862</v>
+        <v>780</v>
       </c>
       <c r="D60" t="s">
         <v>158</v>
@@ -5862,7 +5877,7 @@
       <c r="S60">
         <v>0</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="1">
         <v>1</v>
       </c>
       <c r="Y60">
@@ -5876,11 +5891,11 @@
       <c r="A61" t="s">
         <v>746</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>854</v>
+      <c r="B61" t="s">
+        <v>782</v>
+      </c>
+      <c r="C61" t="s">
+        <v>858</v>
       </c>
       <c r="D61" t="s">
         <v>158</v>
@@ -5900,7 +5915,7 @@
       <c r="S61">
         <v>0</v>
       </c>
-      <c r="T61" s="1">
+      <c r="T61">
         <v>1</v>
       </c>
       <c r="Y61">
@@ -5912,16 +5927,16 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>785</v>
-      </c>
-      <c r="B62" t="s">
-        <v>787</v>
-      </c>
-      <c r="C62" t="s">
-        <v>786</v>
+        <v>746</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>882</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
         <v>52</v>
@@ -5930,19 +5945,19 @@
         <v>30</v>
       </c>
       <c r="N62" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="P62" t="s">
         <v>32</v>
       </c>
       <c r="S62">
-        <v>6.7411960000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="Z62" t="s">
         <v>664</v>
@@ -5950,13 +5965,13 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
+        <v>783</v>
+      </c>
+      <c r="B63" t="s">
         <v>785</v>
       </c>
-      <c r="B63" t="s">
-        <v>860</v>
-      </c>
       <c r="C63" t="s">
-        <v>861</v>
+        <v>784</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -5974,13 +5989,13 @@
         <v>32</v>
       </c>
       <c r="S63">
-        <v>1.0065950000000001E-2</v>
-      </c>
-      <c r="T63">
+        <v>6.7411960000000003E-4</v>
+      </c>
+      <c r="T63" s="1">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="Z63" t="s">
         <v>664</v>
@@ -5988,13 +6003,13 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B64" t="s">
-        <v>788</v>
+        <v>856</v>
       </c>
       <c r="C64" t="s">
-        <v>789</v>
+        <v>857</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
@@ -6012,13 +6027,13 @@
         <v>32</v>
       </c>
       <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64" s="1">
+        <v>1.0065950000000001E-2</v>
+      </c>
+      <c r="T64">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Z64" t="s">
         <v>664</v>
@@ -6026,13 +6041,13 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B65" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C65" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D65" t="s">
         <v>79</v>
@@ -6052,11 +6067,11 @@
       <c r="S65">
         <v>0</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="1">
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="Z65" t="s">
         <v>664</v>
@@ -6064,13 +6079,13 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B66" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C66" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D66" t="s">
         <v>79</v>
@@ -6088,13 +6103,13 @@
         <v>32</v>
       </c>
       <c r="S66">
-        <v>2.2843829999999999E-2</v>
-      </c>
-      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66">
         <v>1</v>
       </c>
       <c r="Y66">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Z66" t="s">
         <v>664</v>
@@ -6102,13 +6117,13 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B67" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C67" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D67" t="s">
         <v>79</v>
@@ -6126,13 +6141,13 @@
         <v>32</v>
       </c>
       <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
+        <v>2.2843829999999999E-2</v>
+      </c>
+      <c r="T67" s="1">
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Z67" t="s">
         <v>664</v>
@@ -6140,13 +6155,13 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B68" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C68" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D68" t="s">
         <v>79</v>
@@ -6164,13 +6179,13 @@
         <v>32</v>
       </c>
       <c r="S68">
-        <v>2.1141649999999999E-3</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0.57712521400000005</v>
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
       </c>
       <c r="Y68">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Z68" t="s">
         <v>664</v>
@@ -6178,13 +6193,13 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B69" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C69" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D69" t="s">
         <v>79</v>
@@ -6201,14 +6216,14 @@
       <c r="P69" t="s">
         <v>32</v>
       </c>
-      <c r="S69" s="1">
-        <v>4.3198359999999999E-6</v>
-      </c>
-      <c r="T69">
-        <v>1</v>
+      <c r="S69">
+        <v>2.1141649999999999E-3</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0.57712521400000005</v>
       </c>
       <c r="Y69">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="Z69" t="s">
         <v>664</v>
@@ -6216,13 +6231,13 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B70" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C70" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
@@ -6240,13 +6255,13 @@
         <v>32</v>
       </c>
       <c r="S70" s="1">
-        <v>5.0344719999999999E-6</v>
-      </c>
-      <c r="T70" s="1">
+        <v>4.3198359999999999E-6</v>
+      </c>
+      <c r="T70">
         <v>1</v>
       </c>
       <c r="Y70">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Z70" t="s">
         <v>664</v>
@@ -6254,13 +6269,13 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B71" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="C71" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D71" t="s">
         <v>79</v>
@@ -6277,8 +6292,12 @@
       <c r="P71" t="s">
         <v>32</v>
       </c>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
+      <c r="S71" s="1">
+        <v>5.0344719999999999E-6</v>
+      </c>
+      <c r="T71" s="1">
+        <v>1</v>
+      </c>
       <c r="Y71">
         <v>103</v>
       </c>
@@ -6288,13 +6307,13 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B72" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C72" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D72" t="s">
         <v>79</v>
@@ -6311,6 +6330,8 @@
       <c r="P72" t="s">
         <v>32</v>
       </c>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
       <c r="Y72">
         <v>103</v>
       </c>
@@ -6320,13 +6341,13 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B73" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C73" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D73" t="s">
         <v>79</v>
@@ -6352,13 +6373,13 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B74" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C74" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
@@ -6384,13 +6405,13 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B75" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C75" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D75" t="s">
         <v>79</v>
@@ -6416,13 +6437,13 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B76" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C76" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D76" t="s">
         <v>79</v>
@@ -6448,13 +6469,13 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B77" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C77" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -6480,13 +6501,13 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B78" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C78" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D78" t="s">
         <v>79</v>
@@ -6512,13 +6533,13 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B79" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C79" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D79" t="s">
         <v>79</v>
@@ -6544,13 +6565,13 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B80" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C80" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
@@ -6576,13 +6597,13 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B81" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C81" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D81" t="s">
         <v>79</v>
@@ -6608,13 +6629,13 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B82" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C82" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D82" t="s">
         <v>79</v>
@@ -6640,13 +6661,13 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B83" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C83" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="D83" t="s">
         <v>79</v>
@@ -6663,12 +6684,6 @@
       <c r="P83" t="s">
         <v>32</v>
       </c>
-      <c r="S83" s="1">
-        <v>7.8978970000000002E-5</v>
-      </c>
-      <c r="T83">
-        <v>1</v>
-      </c>
       <c r="Y83">
         <v>103</v>
       </c>
@@ -6678,13 +6693,13 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B84" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C84" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D84" t="s">
         <v>79</v>
@@ -6701,8 +6716,8 @@
       <c r="P84" t="s">
         <v>32</v>
       </c>
-      <c r="S84">
-        <v>2.7422059999999997E-4</v>
+      <c r="S84" s="1">
+        <v>7.8978970000000002E-5</v>
       </c>
       <c r="T84">
         <v>1</v>
@@ -6716,13 +6731,13 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B85" t="s">
-        <v>857</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>856</v>
+        <v>827</v>
+      </c>
+      <c r="C85" t="s">
+        <v>826</v>
       </c>
       <c r="D85" t="s">
         <v>79</v>
@@ -6740,7 +6755,7 @@
         <v>32</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>2.7422059999999997E-4</v>
       </c>
       <c r="T85">
         <v>1</v>
@@ -6754,13 +6769,13 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B86" t="s">
-        <v>831</v>
-      </c>
-      <c r="C86" t="s">
-        <v>833</v>
+        <v>853</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>852</v>
       </c>
       <c r="D86" t="s">
         <v>79</v>
@@ -6784,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="Y86">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Z86" t="s">
         <v>664</v>
@@ -6792,13 +6807,13 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>830</v>
+        <v>783</v>
       </c>
       <c r="B87" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C87" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D87" t="s">
         <v>79</v>
@@ -6816,13 +6831,13 @@
         <v>32</v>
       </c>
       <c r="S87">
-        <v>6.4211044199366898E-4</v>
+        <v>0</v>
       </c>
       <c r="T87">
         <v>1</v>
       </c>
       <c r="Y87">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Z87" t="s">
         <v>664</v>
@@ -6830,40 +6845,31 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>828</v>
       </c>
       <c r="B88" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C88" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D88" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
-        <v>837</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s">
         <v>30</v>
       </c>
-      <c r="M88" t="s">
-        <v>39</v>
-      </c>
       <c r="N88" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P88" t="s">
         <v>32</v>
       </c>
-      <c r="Q88">
-        <v>2021</v>
-      </c>
-      <c r="R88">
-        <v>2021</v>
-      </c>
       <c r="S88">
-        <v>-1</v>
+        <v>6.4211044199366898E-4</v>
       </c>
       <c r="T88">
         <v>1</v>
@@ -6877,37 +6883,46 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>830</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="C89" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="D89" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>835</v>
       </c>
       <c r="J89" t="s">
         <v>30</v>
       </c>
+      <c r="M89" t="s">
+        <v>39</v>
+      </c>
       <c r="N89" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P89" t="s">
         <v>32</v>
       </c>
+      <c r="Q89">
+        <v>2021</v>
+      </c>
+      <c r="R89">
+        <v>2021</v>
+      </c>
       <c r="S89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T89">
         <v>1</v>
       </c>
       <c r="Y89">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Z89" t="s">
         <v>664</v>
@@ -6915,43 +6930,34 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>828</v>
       </c>
       <c r="B90" t="s">
+        <v>848</v>
+      </c>
+      <c r="C90" t="s">
         <v>851</v>
       </c>
-      <c r="C90" t="s">
-        <v>852</v>
-      </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E90" t="s">
-        <v>837</v>
+        <v>52</v>
       </c>
       <c r="J90" t="s">
         <v>30</v>
       </c>
-      <c r="M90" t="s">
-        <v>39</v>
-      </c>
       <c r="N90" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P90" t="s">
         <v>32</v>
       </c>
-      <c r="Q90">
-        <v>2021</v>
-      </c>
-      <c r="R90">
-        <v>2021</v>
-      </c>
       <c r="S90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T90">
-        <v>2.1335900000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="Y90">
         <v>23</v>
@@ -6962,110 +6968,119 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>830</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="C91" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>835</v>
       </c>
       <c r="J91" t="s">
         <v>30</v>
       </c>
+      <c r="M91" t="s">
+        <v>39</v>
+      </c>
       <c r="N91" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P91" t="s">
         <v>32</v>
       </c>
+      <c r="Q91">
+        <v>2021</v>
+      </c>
+      <c r="R91">
+        <v>2021</v>
+      </c>
       <c r="S91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T91">
-        <v>1</v>
+        <v>2.1335900000000001E-2</v>
+      </c>
+      <c r="Y91">
+        <v>23</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>828</v>
       </c>
       <c r="B92" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C92" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E92" t="s">
-        <v>837</v>
+        <v>52</v>
       </c>
       <c r="J92" t="s">
         <v>30</v>
       </c>
-      <c r="M92" t="s">
-        <v>39</v>
-      </c>
       <c r="N92" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P92" t="s">
         <v>32</v>
       </c>
-      <c r="Q92">
-        <v>2021</v>
-      </c>
-      <c r="R92">
-        <v>2021</v>
-      </c>
       <c r="S92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T92">
         <v>1</v>
-      </c>
-      <c r="Y92">
-        <v>103</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>830</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C93" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D93" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>835</v>
       </c>
       <c r="J93" t="s">
         <v>30</v>
       </c>
+      <c r="M93" t="s">
+        <v>39</v>
+      </c>
       <c r="N93" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P93" t="s">
         <v>32</v>
       </c>
+      <c r="Q93">
+        <v>2021</v>
+      </c>
+      <c r="R93">
+        <v>2021</v>
+      </c>
       <c r="S93">
-        <v>4.0024200000000003E-2</v>
+        <v>-1</v>
       </c>
       <c r="T93">
         <v>1</v>
@@ -7079,16 +7094,16 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>828</v>
       </c>
       <c r="B94" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C94" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E94" t="s">
         <v>52</v>
@@ -7096,23 +7111,14 @@
       <c r="J94" t="s">
         <v>30</v>
       </c>
-      <c r="M94" t="s">
-        <v>39</v>
-      </c>
       <c r="N94" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P94" t="s">
         <v>32</v>
       </c>
-      <c r="Q94">
-        <v>2021</v>
-      </c>
-      <c r="R94">
-        <v>2021</v>
-      </c>
-      <c r="S94" s="1">
-        <v>-3.334682E-15</v>
+      <c r="S94">
+        <v>4.0024200000000003E-2</v>
       </c>
       <c r="T94">
         <v>1</v>
@@ -7126,37 +7132,46 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>830</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C95" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>837</v>
+        <v>52</v>
       </c>
       <c r="J95" t="s">
         <v>30</v>
       </c>
+      <c r="M95" t="s">
+        <v>39</v>
+      </c>
       <c r="N95" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P95" t="s">
         <v>32</v>
       </c>
-      <c r="S95">
-        <v>0</v>
+      <c r="Q95">
+        <v>2021</v>
+      </c>
+      <c r="R95">
+        <v>2021</v>
+      </c>
+      <c r="S95" s="1">
+        <v>-3.334682E-15</v>
       </c>
       <c r="T95">
         <v>1</v>
       </c>
       <c r="Y95">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Z95" t="s">
         <v>664</v>
@@ -7164,43 +7179,34 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>828</v>
       </c>
       <c r="B96" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C96" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D96" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>835</v>
       </c>
       <c r="J96" t="s">
         <v>30</v>
       </c>
-      <c r="M96" t="s">
-        <v>39</v>
-      </c>
       <c r="N96" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P96" t="s">
         <v>32</v>
       </c>
-      <c r="Q96">
-        <v>2021</v>
-      </c>
-      <c r="R96">
-        <v>2021</v>
-      </c>
       <c r="S96">
-        <v>-1</v>
-      </c>
-      <c r="T96" s="1">
-        <v>2.1335900000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
       </c>
       <c r="Y96">
         <v>23</v>
@@ -7211,40 +7217,46 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>386</v>
+        <v>846</v>
       </c>
       <c r="C97" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="D97" t="s">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>661</v>
+        <v>52</v>
       </c>
       <c r="J97" t="s">
         <v>30</v>
       </c>
-      <c r="L97" t="s">
-        <v>62</v>
+      <c r="M97" t="s">
+        <v>39</v>
       </c>
       <c r="N97" t="s">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="P97" t="s">
         <v>32</v>
       </c>
+      <c r="Q97">
+        <v>2021</v>
+      </c>
+      <c r="R97">
+        <v>2021</v>
+      </c>
       <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="T97" s="1">
+        <v>2.1335900000000001E-2</v>
       </c>
       <c r="Y97">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="Z97" t="s">
         <v>664</v>
@@ -7255,31 +7267,31 @@
         <v>388</v>
       </c>
       <c r="B98" t="s">
-        <v>634</v>
+        <v>386</v>
       </c>
       <c r="C98" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D98" t="s">
-        <v>636</v>
+        <v>388</v>
       </c>
       <c r="E98" t="s">
-        <v>870</v>
+        <v>661</v>
       </c>
       <c r="J98" t="s">
         <v>30</v>
       </c>
       <c r="L98" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="N98" t="s">
-        <v>636</v>
+        <v>388</v>
       </c>
       <c r="P98" t="s">
         <v>32</v>
       </c>
       <c r="S98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98">
         <v>1</v>
@@ -7296,16 +7308,16 @@
         <v>388</v>
       </c>
       <c r="B99" t="s">
-        <v>872</v>
+        <v>634</v>
       </c>
       <c r="C99" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>636</v>
       </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>866</v>
       </c>
       <c r="J99" t="s">
         <v>30</v>
@@ -7314,16 +7326,16 @@
         <v>208</v>
       </c>
       <c r="N99" t="s">
-        <v>28</v>
+        <v>636</v>
       </c>
       <c r="P99" t="s">
         <v>32</v>
       </c>
       <c r="S99">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="T99">
-        <v>454769</v>
+        <v>1</v>
       </c>
       <c r="Y99">
         <v>103</v>
@@ -7332,8 +7344,49 @@
         <v>664</v>
       </c>
     </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>388</v>
+      </c>
+      <c r="B100" t="s">
+        <v>868</v>
+      </c>
+      <c r="C100" t="s">
+        <v>867</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>204</v>
+      </c>
+      <c r="J100" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N100" t="s">
+        <v>28</v>
+      </c>
+      <c r="P100" t="s">
+        <v>32</v>
+      </c>
+      <c r="S100">
+        <v>27</v>
+      </c>
+      <c r="T100">
+        <v>454769</v>
+      </c>
+      <c r="Y100">
+        <v>103</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>664</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z97" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
